--- a/WBD.xlsx
+++ b/WBD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F136A88C-4D87-4170-BA21-61D8FA203A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E413BD48-4310-433C-8E34-61ACDB24A00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{5C7F38FC-DD10-463B-8DE9-023509F3C474}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{5C7F38FC-DD10-463B-8DE9-023509F3C474}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="124">
   <si>
     <t>WBD</t>
   </si>
@@ -307,9 +307,6 @@
     <t>Network Revenue</t>
   </si>
   <si>
-    <t>DTC Revenue</t>
-  </si>
-  <si>
     <t xml:space="preserve">Balance Sheet </t>
   </si>
   <si>
@@ -418,9 +415,6 @@
     <t>WGA and SAG-AFTRA went on strike</t>
   </si>
   <si>
-    <t>CEO and Director</t>
-  </si>
-  <si>
     <t>David M. Zaslav (since 2007)</t>
   </si>
   <si>
@@ -440,6 +434,15 @@
   </si>
   <si>
     <t>Q425</t>
+  </si>
+  <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>DTC Revenue (Streaming)</t>
   </si>
 </sst>
 </file>
@@ -882,7 +885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787A051E-5ADC-4694-AF11-764B14534224}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -905,7 +908,7 @@
         <v>4</v>
       </c>
       <c r="H2">
-        <v>9</v>
+        <v>11.87</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -913,10 +916,10 @@
         <v>5</v>
       </c>
       <c r="H3" s="3">
-        <v>2474.0750029999999</v>
+        <v>2475.7722819999999</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -928,7 +931,7 @@
       </c>
       <c r="H4" s="3">
         <f>+H2*H3</f>
-        <v>22266.675026999997</v>
+        <v>29387.416987339999</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -939,10 +942,10 @@
         <v>7</v>
       </c>
       <c r="H5" s="3">
-        <v>3868</v>
+        <v>4888</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -950,11 +953,11 @@
         <v>8</v>
       </c>
       <c r="H6" s="3">
-        <f>2779+34647</f>
-        <v>37426</v>
+        <f>221+34411</f>
+        <v>34632</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -966,7 +969,7 @@
       </c>
       <c r="H7" s="3">
         <f>+H4-H5+H6</f>
-        <v>55824.675026999997</v>
+        <v>59131.416987339995</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -978,11 +981,8 @@
       <c r="B9" t="s">
         <v>48</v>
       </c>
-      <c r="G9" t="s">
-        <v>115</v>
-      </c>
-      <c r="I9" t="s">
-        <v>116</v>
+      <c r="G9" s="8" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -990,16 +990,22 @@
         <v>49</v>
       </c>
       <c r="G10" t="s">
-        <v>117</v>
-      </c>
-      <c r="I10" t="s">
-        <v>118</v>
+        <v>121</v>
+      </c>
+      <c r="H10" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>50</v>
       </c>
+      <c r="G11" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -1077,7 +1083,7 @@
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
@@ -1087,7 +1093,7 @@
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
@@ -1097,12 +1103,12 @@
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
@@ -1110,7 +1116,7 @@
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1122,11 +1128,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE9082AB-1A6A-4374-B6C8-53990C281FA1}">
   <dimension ref="A1:AL540"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,16 +1172,16 @@
         <v>18</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>55</v>
@@ -1201,7 +1207,7 @@
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1224,7 +1230,9 @@
       <c r="K3" s="2">
         <v>57.6</v>
       </c>
-      <c r="L3" s="2"/>
+      <c r="L3" s="2">
+        <v>57.8</v>
+      </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="P3" s="2"/>
@@ -1241,7 +1249,7 @@
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1264,7 +1272,9 @@
       <c r="K4" s="2">
         <v>64.599999999999994</v>
       </c>
-      <c r="L4" s="2"/>
+      <c r="L4" s="2">
+        <v>67.900000000000006</v>
+      </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="P4" s="2"/>
@@ -1281,7 +1291,7 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1306,7 +1316,9 @@
       <c r="K5" s="2">
         <v>122.3</v>
       </c>
-      <c r="L5" s="2"/>
+      <c r="L5" s="2">
+        <v>125.7</v>
+      </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="P5" s="2"/>
@@ -1323,7 +1335,7 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1342,7 +1354,9 @@
       <c r="K6" s="2">
         <v>11.15</v>
       </c>
-      <c r="L6" s="2"/>
+      <c r="L6" s="2">
+        <v>11.16</v>
+      </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="P6" s="2"/>
@@ -1359,7 +1373,7 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1378,7 +1392,9 @@
       <c r="K7" s="2">
         <v>3.63</v>
       </c>
-      <c r="L7" s="2"/>
+      <c r="L7" s="2">
+        <v>3.85</v>
+      </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="P7" s="2"/>
@@ -1395,7 +1411,7 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1414,7 +1430,9 @@
       <c r="K8" s="2">
         <v>7.11</v>
       </c>
-      <c r="L8" s="2"/>
+      <c r="L8" s="2">
+        <v>7.14</v>
+      </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="P8" s="2"/>
@@ -1461,13 +1479,17 @@
       <c r="G10" s="10">
         <v>2821</v>
       </c>
-      <c r="H10" s="10"/>
+      <c r="H10" s="10">
+        <v>2449</v>
+      </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10">
         <v>2314</v>
       </c>
-      <c r="L10" s="10"/>
+      <c r="L10" s="10">
+        <v>3801</v>
+      </c>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
       <c r="O10" s="11"/>
@@ -1507,13 +1529,17 @@
       <c r="G11" s="10">
         <v>5125</v>
       </c>
-      <c r="H11" s="10"/>
+      <c r="H11" s="10">
+        <v>5272</v>
+      </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10">
         <v>4774</v>
       </c>
-      <c r="L11" s="10"/>
+      <c r="L11" s="10">
+        <v>4803</v>
+      </c>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="11"/>
@@ -1544,7 +1570,7 @@
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -1553,13 +1579,17 @@
       <c r="G12" s="10">
         <v>2460</v>
       </c>
-      <c r="H12" s="10"/>
+      <c r="H12" s="10">
+        <v>2568</v>
+      </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10">
         <v>2656</v>
       </c>
-      <c r="L12" s="10"/>
+      <c r="L12" s="10">
+        <v>2793</v>
+      </c>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
       <c r="O12" s="11"/>
@@ -1621,7 +1651,9 @@
       <c r="K13" s="11">
         <v>4886</v>
       </c>
-      <c r="L13" s="11"/>
+      <c r="L13" s="11">
+        <v>4885</v>
+      </c>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
@@ -1690,7 +1722,9 @@
       <c r="K14" s="11">
         <v>1980</v>
       </c>
-      <c r="L14" s="11"/>
+      <c r="L14" s="11">
+        <v>2216</v>
+      </c>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
@@ -1759,7 +1793,9 @@
       <c r="K15" s="11">
         <v>1866</v>
       </c>
-      <c r="L15" s="11"/>
+      <c r="L15" s="11">
+        <v>2471</v>
+      </c>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
@@ -1828,7 +1864,9 @@
       <c r="K16" s="11">
         <v>247</v>
       </c>
-      <c r="L16" s="11"/>
+      <c r="L16" s="11">
+        <v>240</v>
+      </c>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
@@ -1904,7 +1942,9 @@
         <f t="shared" si="1"/>
         <v>8979</v>
       </c>
-      <c r="L17" s="12"/>
+      <c r="L17" s="12">
+        <v>9812</v>
+      </c>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
       <c r="O17" s="11"/>
@@ -1986,7 +2026,9 @@
       <c r="K18" s="11">
         <v>5131</v>
       </c>
-      <c r="L18" s="11"/>
+      <c r="L18" s="11">
+        <v>5967</v>
+      </c>
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
@@ -2062,7 +2104,10 @@
         <f t="shared" si="3"/>
         <v>3848</v>
       </c>
-      <c r="L19" s="11"/>
+      <c r="L19" s="11">
+        <f t="shared" si="3"/>
+        <v>3845</v>
+      </c>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
@@ -2144,7 +2189,9 @@
       <c r="K20" s="11">
         <v>2194</v>
       </c>
-      <c r="L20" s="11"/>
+      <c r="L20" s="11">
+        <v>2477</v>
+      </c>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
@@ -2213,7 +2260,9 @@
       <c r="K21" s="11">
         <v>1547</v>
       </c>
-      <c r="L21" s="11"/>
+      <c r="L21" s="11">
+        <v>1447</v>
+      </c>
       <c r="M21" s="11"/>
       <c r="N21" s="11"/>
       <c r="O21" s="11"/>
@@ -2282,7 +2331,9 @@
       <c r="K22" s="11">
         <v>54</v>
       </c>
-      <c r="L22" s="11"/>
+      <c r="L22" s="11">
+        <v>80</v>
+      </c>
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
@@ -2351,7 +2402,9 @@
       <c r="K23" s="11">
         <v>90</v>
       </c>
-      <c r="L23" s="11"/>
+      <c r="L23" s="11">
+        <v>26</v>
+      </c>
       <c r="M23" s="11"/>
       <c r="N23" s="11"/>
       <c r="O23" s="11"/>
@@ -2427,7 +2480,10 @@
         <f t="shared" si="5"/>
         <v>-37</v>
       </c>
-      <c r="L24" s="11"/>
+      <c r="L24" s="11">
+        <f t="shared" si="5"/>
+        <v>-185</v>
+      </c>
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
       <c r="O24" s="11"/>
@@ -2509,7 +2565,9 @@
       <c r="K25" s="11">
         <v>468</v>
       </c>
-      <c r="L25" s="11"/>
+      <c r="L25" s="11">
+        <v>463</v>
+      </c>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
       <c r="O25" s="11"/>
@@ -2578,7 +2636,9 @@
       <c r="K26" s="11">
         <v>-4</v>
       </c>
-      <c r="L26" s="11"/>
+      <c r="L26" s="11">
+        <v>2958</v>
+      </c>
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
       <c r="O26" s="11"/>
@@ -2647,7 +2707,9 @@
       <c r="K27" s="11">
         <v>7</v>
       </c>
-      <c r="L27" s="11"/>
+      <c r="L27" s="11">
+        <v>-5</v>
+      </c>
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
@@ -2716,7 +2778,9 @@
       <c r="K28" s="11">
         <v>82</v>
       </c>
-      <c r="L28" s="11"/>
+      <c r="L28" s="11">
+        <v>139</v>
+      </c>
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
       <c r="O28" s="11"/>
@@ -2785,14 +2849,17 @@
         <v>-178</v>
       </c>
       <c r="J29" s="11">
-        <f t="shared" ref="J29:K29" si="7">+J24-J25+J26-J27+J28</f>
+        <f t="shared" ref="J29:L29" si="7">+J24-J25+J26-J27+J28</f>
         <v>-356</v>
       </c>
       <c r="K29" s="11">
         <f t="shared" si="7"/>
         <v>-434</v>
       </c>
-      <c r="L29" s="11"/>
+      <c r="L29" s="11">
+        <f t="shared" si="7"/>
+        <v>2454</v>
+      </c>
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>
       <c r="O29" s="11"/>
@@ -2874,7 +2941,9 @@
       <c r="K30" s="11">
         <v>15</v>
       </c>
-      <c r="L30" s="11"/>
+      <c r="L30" s="11">
+        <v>866</v>
+      </c>
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
       <c r="O30" s="11"/>
@@ -2950,7 +3019,10 @@
         <f t="shared" si="10"/>
         <v>-449</v>
       </c>
-      <c r="L31" s="11"/>
+      <c r="L31" s="11">
+        <f t="shared" si="10"/>
+        <v>1588</v>
+      </c>
       <c r="M31" s="11"/>
       <c r="N31" s="11"/>
       <c r="O31" s="11"/>
@@ -3033,7 +3105,9 @@
         <f>-4+8</f>
         <v>4</v>
       </c>
-      <c r="L32" s="11"/>
+      <c r="L32" s="11">
+        <v>8</v>
+      </c>
       <c r="M32" s="11"/>
       <c r="N32" s="11"/>
       <c r="O32" s="11"/>
@@ -3110,7 +3184,10 @@
         <f t="shared" si="12"/>
         <v>-453</v>
       </c>
-      <c r="L33" s="11"/>
+      <c r="L33" s="11">
+        <f t="shared" si="12"/>
+        <v>1580</v>
+      </c>
       <c r="M33" s="11"/>
       <c r="N33" s="11"/>
       <c r="O33" s="11"/>
@@ -3230,14 +3307,17 @@
         <v>5.5034651447207504E-2</v>
       </c>
       <c r="J35" s="9">
-        <f t="shared" ref="J35:K35" si="14">+J33/J36</f>
+        <f t="shared" ref="J35:L35" si="14">+J33/J36</f>
         <v>-0.20163265306122449</v>
       </c>
       <c r="K35" s="9">
         <f t="shared" si="14"/>
         <v>-0.18399675060926077</v>
       </c>
-      <c r="L35" s="5"/>
+      <c r="L35" s="9">
+        <f t="shared" si="14"/>
+        <v>0.63786838918046018</v>
+      </c>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="3"/>
@@ -3318,7 +3398,9 @@
       <c r="K36" s="3">
         <v>2462</v>
       </c>
-      <c r="L36" s="3"/>
+      <c r="L36" s="3">
+        <v>2477</v>
+      </c>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
@@ -3405,7 +3487,7 @@
         <v>-6.9345794392523419E-2</v>
       </c>
       <c r="H38" s="13">
-        <f t="shared" ref="H38:K38" si="16">+H17/D17-1</f>
+        <f t="shared" ref="H38:L38" si="16">+H17/D17-1</f>
         <v>-6.2270708631009808E-2</v>
       </c>
       <c r="I38" s="13">
@@ -3420,7 +3502,10 @@
         <f t="shared" si="16"/>
         <v>-9.8312914239807148E-2</v>
       </c>
-      <c r="L38" s="13"/>
+      <c r="L38" s="13">
+        <f t="shared" si="16"/>
+        <v>1.0192525481313774E-2</v>
+      </c>
       <c r="M38" s="13"/>
       <c r="N38" s="13"/>
       <c r="O38" s="6"/>
@@ -3506,36 +3591,39 @@
         <f t="shared" si="19"/>
         <v>0.42855551843189665</v>
       </c>
-      <c r="L39" s="7"/>
+      <c r="L39" s="7">
+        <f t="shared" ref="L39" si="20">+L19/L17</f>
+        <v>0.39186710150835713</v>
+      </c>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
       <c r="O39" s="3"/>
       <c r="P39" s="7" t="e">
-        <f t="shared" ref="P39:V39" si="20">+P19/P17</f>
+        <f t="shared" ref="P39:V39" si="21">+P19/P17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q39" s="7" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R39" s="7" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S39" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.62103190878516934</v>
       </c>
       <c r="T39" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.39551113345358846</v>
       </c>
       <c r="U39" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.40645192517122042</v>
       </c>
       <c r="V39" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.41583377838813868</v>
       </c>
       <c r="W39" s="3"/>
@@ -3560,27 +3648,27 @@
         <v>44</v>
       </c>
       <c r="C40" s="7">
-        <f t="shared" ref="C40:H40" si="21">+C24/C17</f>
+        <f t="shared" ref="C40:H40" si="22">+C24/C17</f>
         <v>-5.205607476635514E-2</v>
       </c>
       <c r="D40" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-8.7468623286348718E-2</v>
       </c>
       <c r="E40" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>9.7204128670207429E-3</v>
       </c>
       <c r="F40" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-1.7697394010112798E-2</v>
       </c>
       <c r="G40" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-2.6812612974492871E-2</v>
       </c>
       <c r="H40" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-1.0509626274065684</v>
       </c>
       <c r="I40" s="7">
@@ -3588,43 +3676,46 @@
         <v>2.9200872908656344E-2</v>
       </c>
       <c r="J40" s="7">
-        <f t="shared" ref="J40:K40" si="22">+J24/J17</f>
+        <f t="shared" ref="J40:K40" si="23">+J24/J17</f>
         <v>1.6156377779994017E-2</v>
       </c>
       <c r="K40" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-4.1207261387682373E-3</v>
       </c>
-      <c r="L40" s="7"/>
+      <c r="L40" s="7">
+        <f t="shared" ref="L40" si="24">+L24/L17</f>
+        <v>-1.8854463921728494E-2</v>
+      </c>
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
       <c r="O40" s="3"/>
       <c r="P40" s="7" t="e">
-        <f t="shared" ref="P40:V40" si="23">+P24/P17</f>
+        <f t="shared" ref="P40:V40" si="25">+P24/P17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q40" s="7" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R40" s="7" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S40" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.16503978344680503</v>
       </c>
       <c r="T40" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>-0.21793772363012687</v>
       </c>
       <c r="U40" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>-3.7462791316763874E-2</v>
       </c>
       <c r="V40" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>-0.25513084611276415</v>
       </c>
       <c r="W40" s="3"/>
@@ -3649,27 +3740,27 @@
         <v>45</v>
       </c>
       <c r="C41" s="7">
-        <f t="shared" ref="C41:H41" si="24">+C30/C29</f>
+        <f t="shared" ref="C41:H41" si="26">+C30/C29</f>
         <v>0.14378029079159935</v>
       </c>
       <c r="D41" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.17567567567567569</v>
       </c>
       <c r="E41" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.23496240601503759</v>
       </c>
       <c r="F41" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.36052202283849921</v>
       </c>
       <c r="G41" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-0.16605616605616605</v>
       </c>
       <c r="H41" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>6.9755854509217737E-4</v>
       </c>
       <c r="I41" s="7">
@@ -3677,43 +3768,46 @@
         <v>1.7921348314606742</v>
       </c>
       <c r="J41" s="7">
-        <f t="shared" ref="J41:K41" si="25">+J30/J29</f>
+        <f t="shared" ref="J41:K41" si="27">+J30/J29</f>
         <v>-0.797752808988764</v>
       </c>
       <c r="K41" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-3.4562211981566823E-2</v>
       </c>
-      <c r="L41" s="7"/>
+      <c r="L41" s="7">
+        <f t="shared" ref="L41" si="28">+L30/L29</f>
+        <v>0.35289323553382235</v>
+      </c>
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
       <c r="O41" s="3"/>
       <c r="P41" s="7" t="e">
-        <f t="shared" ref="P41:V41" si="26">+P30/P29</f>
+        <f t="shared" ref="P41:V41" si="29">+P30/P29</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q41" s="7" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R41" s="7" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S41" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0.16468946266573622</v>
       </c>
       <c r="T41" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0.18560267857142856</v>
       </c>
       <c r="U41" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0.2029510742945897</v>
       </c>
       <c r="V41" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>-8.2543027748507199E-3</v>
       </c>
       <c r="W41" s="3"/>
@@ -3773,7 +3867,7 @@
     </row>
     <row r="43" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -3814,7 +3908,7 @@
     </row>
     <row r="44" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -3859,7 +3953,7 @@
     </row>
     <row r="45" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -3904,7 +3998,7 @@
     </row>
     <row r="46" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -3949,7 +4043,7 @@
     </row>
     <row r="47" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -3965,23 +4059,23 @@
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
       <c r="P47" s="3">
-        <f t="shared" ref="P47:T47" si="27">SUM(P44:P46)</f>
+        <f t="shared" ref="P47:T47" si="30">SUM(P44:P46)</f>
         <v>0</v>
       </c>
       <c r="Q47" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="R47" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="S47" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="T47" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>13999</v>
       </c>
       <c r="U47" s="3">
@@ -4008,7 +4102,7 @@
     </row>
     <row r="48" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -4053,7 +4147,7 @@
     </row>
     <row r="49" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -4098,7 +4192,7 @@
     </row>
     <row r="50" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -4143,7 +4237,7 @@
     </row>
     <row r="51" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -4188,7 +4282,7 @@
     </row>
     <row r="52" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -4233,7 +4327,7 @@
     </row>
     <row r="53" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -4249,23 +4343,23 @@
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
       <c r="P53" s="3">
-        <f t="shared" ref="P53:T53" si="28">SUM(P48:P52)</f>
+        <f t="shared" ref="P53:T53" si="31">SUM(P48:P52)</f>
         <v>0</v>
       </c>
       <c r="Q53" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="R53" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="S53" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T53" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>120002</v>
       </c>
       <c r="U53" s="3">
@@ -4273,7 +4367,7 @@
         <v>108539</v>
       </c>
       <c r="V53" s="3">
-        <f t="shared" ref="V53" si="29">SUM(V48:V52)</f>
+        <f t="shared" ref="V53" si="32">SUM(V48:V52)</f>
         <v>0</v>
       </c>
       <c r="W53" s="3"/>
@@ -4295,7 +4389,7 @@
     </row>
     <row r="54" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -4311,23 +4405,23 @@
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
       <c r="P54" s="3">
-        <f t="shared" ref="P54:T54" si="30">+P47+P53</f>
+        <f t="shared" ref="P54:T54" si="33">+P47+P53</f>
         <v>0</v>
       </c>
       <c r="Q54" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="R54" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="S54" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="T54" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>134001</v>
       </c>
       <c r="U54" s="3">
@@ -4335,7 +4429,7 @@
         <v>122757</v>
       </c>
       <c r="V54" s="3">
-        <f t="shared" ref="V54" si="31">+V47+V53</f>
+        <f t="shared" ref="V54" si="34">+V47+V53</f>
         <v>0</v>
       </c>
       <c r="W54" s="3"/>
@@ -4395,7 +4489,7 @@
     </row>
     <row r="56" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -4440,7 +4534,7 @@
     </row>
     <row r="57" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -4485,7 +4579,7 @@
     </row>
     <row r="58" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -4530,7 +4624,7 @@
     </row>
     <row r="59" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -4575,7 +4669,7 @@
     </row>
     <row r="60" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -4591,23 +4685,23 @@
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
       <c r="P60" s="3">
-        <f t="shared" ref="P60:T60" si="32">SUM(P56:P59)</f>
+        <f t="shared" ref="P60:T60" si="35">SUM(P56:P59)</f>
         <v>0</v>
       </c>
       <c r="Q60" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R60" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="S60" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="T60" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>15017</v>
       </c>
       <c r="U60" s="3">
@@ -4615,7 +4709,7 @@
         <v>15332</v>
       </c>
       <c r="V60" s="3">
-        <f t="shared" ref="V60" si="33">SUM(V56:V59)</f>
+        <f t="shared" ref="V60" si="36">SUM(V56:V59)</f>
         <v>0</v>
       </c>
       <c r="W60" s="3"/>
@@ -4637,7 +4731,7 @@
     </row>
     <row r="61" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -4682,7 +4776,7 @@
     </row>
     <row r="62" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -4727,7 +4821,7 @@
     </row>
     <row r="63" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -4772,7 +4866,7 @@
     </row>
     <row r="64" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -4788,23 +4882,23 @@
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
       <c r="P64" s="3">
-        <f t="shared" ref="P64:T64" si="34">SUM(P61:P63)</f>
+        <f t="shared" ref="P64:T64" si="37">SUM(P61:P63)</f>
         <v>0</v>
       </c>
       <c r="Q64" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="R64" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="S64" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="T64" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>70317</v>
       </c>
       <c r="U64" s="3">
@@ -4812,7 +4906,7 @@
         <v>60953</v>
       </c>
       <c r="V64" s="3">
-        <f t="shared" ref="V64" si="35">SUM(V61:V63)</f>
+        <f t="shared" ref="V64" si="38">SUM(V61:V63)</f>
         <v>0</v>
       </c>
       <c r="W64" s="3"/>
@@ -4834,7 +4928,7 @@
     </row>
     <row r="65" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -4850,23 +4944,23 @@
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
       <c r="P65" s="3">
-        <f t="shared" ref="P65:T65" si="36">+P60+P64</f>
+        <f t="shared" ref="P65:T65" si="39">+P60+P64</f>
         <v>0</v>
       </c>
       <c r="Q65" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="R65" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="S65" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="T65" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>85334</v>
       </c>
       <c r="U65" s="3">
@@ -4874,7 +4968,7 @@
         <v>76285</v>
       </c>
       <c r="V65" s="3">
-        <f t="shared" ref="V65" si="37">+V60+V64</f>
+        <f t="shared" ref="V65" si="40">+V60+V64</f>
         <v>0</v>
       </c>
       <c r="W65" s="3"/>
@@ -4934,7 +5028,7 @@
     </row>
     <row r="67" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -4981,7 +5075,7 @@
     </row>
     <row r="68" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -5028,7 +5122,7 @@
     </row>
     <row r="69" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -5045,19 +5139,19 @@
       <c r="O69" s="3"/>
       <c r="P69" s="3"/>
       <c r="Q69" s="3">
-        <f t="shared" ref="Q69:T69" si="38">+Q67-Q68</f>
+        <f t="shared" ref="Q69:T69" si="41">+Q67-Q68</f>
         <v>0</v>
       </c>
       <c r="R69" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="S69" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>2425</v>
       </c>
       <c r="T69" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>3317</v>
       </c>
       <c r="U69" s="3">
@@ -5065,7 +5159,7 @@
         <v>6161</v>
       </c>
       <c r="V69" s="3">
-        <f t="shared" ref="V69" si="39">+V67-V68</f>
+        <f t="shared" ref="V69" si="42">+V67-V68</f>
         <v>0</v>
       </c>
       <c r="W69" s="3"/>
@@ -5087,7 +5181,7 @@
     </row>
     <row r="70" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -5134,7 +5228,7 @@
     </row>
     <row r="71" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>

--- a/WBD.xlsx
+++ b/WBD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E413BD48-4310-433C-8E34-61ACDB24A00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C858EC-6262-4AB2-9E1C-41437C00137F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{5C7F38FC-DD10-463B-8DE9-023509F3C474}"/>
+    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{5C7F38FC-DD10-463B-8DE9-023509F3C474}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -453,7 +453,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00;\(#,##0.00\)"/>
     <numFmt numFmtId="165" formatCode="#,##0;\(#,##0\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -462,12 +462,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -485,14 +483,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -503,6 +493,27 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -528,24 +539,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -886,47 +898,48 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>11.87</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="3">
         <v>2475.7722819999999</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="3">
@@ -934,37 +947,37 @@
         <v>29387.416987339999</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="3">
         <v>4888</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G6" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="3">
         <f>221+34411</f>
         <v>34632</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H7" s="3">
@@ -972,150 +985,150 @@
         <v>59131.416987339995</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1132,2220 +1145,2221 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C2" s="2" t="s">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4">
         <v>52.6</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="4">
         <v>52</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="4">
         <v>52.7</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2">
+      <c r="H3" s="4"/>
+      <c r="I3" s="4">
         <v>52.6</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="4">
         <v>57.1</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="4">
         <v>57.6</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="4">
         <v>57.8</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2">
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4">
         <v>52</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V3" s="4">
         <v>57.1</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4">
         <v>43.3</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4">
         <v>45.6</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="4">
         <v>46.9</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4">
         <v>57.9</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="4">
         <v>59.8</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="4">
         <v>64.599999999999994</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="4">
         <v>67.900000000000006</v>
       </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2">
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4">
         <v>45.6</v>
       </c>
-      <c r="V4" s="2">
+      <c r="V4" s="4">
         <v>59.8</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4">
         <f>+E3+E4</f>
         <v>95.9</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="4">
         <v>97.7</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="4">
         <v>99.6</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4">
         <f>+I3+I4</f>
         <v>110.5</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="4">
         <v>116.9</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="4">
         <v>122.3</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="4">
         <v>125.7</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2">
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4">
         <v>97.7</v>
       </c>
-      <c r="V5" s="2">
+      <c r="V5" s="4">
         <v>116.9</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4">
         <v>11.29</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4">
         <v>11.72</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2">
+      <c r="H6" s="4"/>
+      <c r="I6" s="4">
         <v>11.9</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4">
         <v>11.15</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="4">
         <v>11.16</v>
       </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2">
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4">
         <v>11.2</v>
       </c>
-      <c r="V6" s="2">
+      <c r="V6" s="4">
         <v>11.89</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4">
         <v>3.98</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4">
         <v>3.75</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4">
         <v>4.05</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2">
+      <c r="J7" s="4"/>
+      <c r="K7" s="4">
         <v>3.63</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="4">
         <v>3.85</v>
       </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2">
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4">
         <v>3.85</v>
       </c>
-      <c r="V7" s="2">
+      <c r="V7" s="4">
         <v>3.85</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4">
         <v>7.88</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4">
         <v>7.83</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2">
+      <c r="H8" s="4"/>
+      <c r="I8" s="4">
         <v>7.84</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2">
+      <c r="J8" s="4"/>
+      <c r="K8" s="4">
         <v>7.11</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="4">
         <v>7.14</v>
       </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2">
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4">
         <v>7.78</v>
       </c>
-      <c r="V8" s="2">
+      <c r="V8" s="4">
         <v>7.76</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7">
         <v>2821</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="7">
         <v>2449</v>
       </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10">
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7">
         <v>2314</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="7">
         <v>3801</v>
       </c>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11">
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8">
         <v>12192</v>
       </c>
-      <c r="V10" s="11">
+      <c r="V10" s="8">
         <v>11607</v>
       </c>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="11"/>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="11"/>
-      <c r="AG10" s="11"/>
-      <c r="AH10" s="11"/>
-      <c r="AI10" s="11"/>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7">
         <v>5125</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="7">
         <v>5272</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10">
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7">
         <v>4774</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="7">
         <v>4803</v>
       </c>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11">
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8">
         <v>21244</v>
       </c>
-      <c r="V11" s="11">
+      <c r="V11" s="8">
         <v>20175</v>
       </c>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="11"/>
-      <c r="AD11" s="11"/>
-      <c r="AE11" s="11"/>
-      <c r="AF11" s="11"/>
-      <c r="AG11" s="11"/>
-      <c r="AH11" s="11"/>
-      <c r="AI11" s="11"/>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7">
         <v>2460</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="7">
         <v>2568</v>
       </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10">
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7">
         <v>2656</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="7">
         <v>2793</v>
       </c>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11">
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8">
         <v>10154</v>
       </c>
-      <c r="V12" s="11">
+      <c r="V12" s="8">
         <v>10313</v>
       </c>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="11"/>
-      <c r="AG12" s="11"/>
-      <c r="AH12" s="11"/>
-      <c r="AI12" s="11"/>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="8">
         <v>5163</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="8">
         <v>5135</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="8">
         <v>5026</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="8">
         <f>+U13-SUM(C13:E13)</f>
         <v>4913</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="8">
         <v>4985</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="8">
         <v>4879</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="8">
         <v>4920</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="8">
         <f>+V13-SUM(G13:I13)</f>
         <v>4917</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="8">
         <v>4886</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="8">
         <v>4885</v>
       </c>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11">
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8">
         <v>5202</v>
       </c>
-      <c r="T13" s="11">
+      <c r="T13" s="8">
         <v>16142</v>
       </c>
-      <c r="U13" s="11">
+      <c r="U13" s="8">
         <v>20237</v>
       </c>
-      <c r="V13" s="11">
+      <c r="V13" s="8">
         <v>19701</v>
       </c>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="11"/>
-      <c r="AC13" s="11"/>
-      <c r="AD13" s="11"/>
-      <c r="AE13" s="11"/>
-      <c r="AF13" s="11"/>
-      <c r="AG13" s="11"/>
-      <c r="AH13" s="11"/>
-      <c r="AI13" s="11"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
       <c r="AJ13" s="3"/>
       <c r="AK13" s="3"/>
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="8">
         <v>2298</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="8">
         <v>2519</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="8">
         <v>1796</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="8">
         <f>+U14-SUM(C14:E14)</f>
         <v>2087</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="8">
         <v>2148</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="8">
         <v>2430</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="8">
         <v>1682</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="8">
         <f>+V14-SUM(G14:I14)</f>
         <v>1830</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="8">
         <v>1980</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="8">
         <v>2216</v>
       </c>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11">
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8">
         <v>6194</v>
       </c>
-      <c r="T14" s="11">
+      <c r="T14" s="8">
         <v>8524</v>
       </c>
-      <c r="U14" s="11">
+      <c r="U14" s="8">
         <v>8700</v>
       </c>
-      <c r="V14" s="11">
+      <c r="V14" s="8">
         <v>8090</v>
       </c>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="11"/>
-      <c r="AB14" s="11"/>
-      <c r="AC14" s="11"/>
-      <c r="AD14" s="11"/>
-      <c r="AE14" s="11"/>
-      <c r="AF14" s="11"/>
-      <c r="AG14" s="11"/>
-      <c r="AH14" s="11"/>
-      <c r="AI14" s="11"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8"/>
       <c r="AJ14" s="3"/>
       <c r="AK14" s="3"/>
       <c r="AL14" s="3"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="8">
         <v>2954</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="8">
         <v>2446</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="8">
         <v>2840</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="8">
         <f>+U15-SUM(C15:E15)</f>
         <v>2963</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="8">
         <v>2558</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="8">
         <v>2109</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="8">
         <v>2721</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="8">
         <f>+V15-SUM(G15:I15)</f>
         <v>2909</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="8">
         <v>1866</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="8">
         <v>2471</v>
       </c>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11">
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8">
         <v>737</v>
       </c>
-      <c r="T15" s="11">
+      <c r="T15" s="8">
         <v>8360</v>
       </c>
-      <c r="U15" s="11">
+      <c r="U15" s="8">
         <v>11203</v>
       </c>
-      <c r="V15" s="11">
+      <c r="V15" s="8">
         <v>10297</v>
       </c>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="11"/>
-      <c r="AC15" s="11"/>
-      <c r="AD15" s="11"/>
-      <c r="AE15" s="11"/>
-      <c r="AF15" s="11"/>
-      <c r="AG15" s="11"/>
-      <c r="AH15" s="11"/>
-      <c r="AI15" s="11"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="8"/>
       <c r="AJ15" s="3"/>
       <c r="AK15" s="3"/>
       <c r="AL15" s="3"/>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="8">
         <v>285</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="8">
         <v>258</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="8">
         <v>317</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="8">
         <f>+U16-SUM(C16:E16)</f>
         <v>321</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="8">
         <v>267</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="8">
         <v>295</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="8">
         <v>300</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="8">
         <f>+V16-SUM(G16:I16)</f>
         <v>371</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="8">
         <v>247</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="8">
         <v>240</v>
       </c>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11">
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8">
         <v>58</v>
       </c>
-      <c r="T16" s="11">
+      <c r="T16" s="8">
         <v>791</v>
       </c>
-      <c r="U16" s="11">
+      <c r="U16" s="8">
         <v>1181</v>
       </c>
-      <c r="V16" s="11">
+      <c r="V16" s="8">
         <v>1233</v>
       </c>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="11"/>
-      <c r="AC16" s="11"/>
-      <c r="AD16" s="11"/>
-      <c r="AE16" s="11"/>
-      <c r="AF16" s="11"/>
-      <c r="AG16" s="11"/>
-      <c r="AH16" s="11"/>
-      <c r="AI16" s="11"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="8"/>
       <c r="AJ16" s="3"/>
       <c r="AK16" s="3"/>
       <c r="AL16" s="3"/>
     </row>
-    <row r="17" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="9">
         <f t="shared" ref="C17:F17" si="0">+SUM(C13:C16)</f>
         <v>10700</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="9">
         <f t="shared" si="0"/>
         <v>10358</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="9">
         <f t="shared" si="0"/>
         <v>9979</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="9">
         <f t="shared" si="0"/>
         <v>10284</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="9">
         <f>+SUM(G13:G16)</f>
         <v>9958</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="9">
         <f t="shared" ref="H17:V17" si="1">+SUM(H13:H16)</f>
         <v>9713</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="9">
         <f t="shared" si="1"/>
         <v>9623</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="9">
         <f t="shared" si="1"/>
         <v>10027</v>
       </c>
-      <c r="K17" s="12">
+      <c r="K17" s="9">
         <f t="shared" si="1"/>
         <v>8979</v>
       </c>
-      <c r="L17" s="12">
+      <c r="L17" s="9">
         <v>9812</v>
       </c>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="12">
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="12">
+      <c r="Q17" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R17" s="12">
+      <c r="R17" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S17" s="12">
+      <c r="S17" s="9">
         <f t="shared" si="1"/>
         <v>12191</v>
       </c>
-      <c r="T17" s="12">
+      <c r="T17" s="9">
         <f t="shared" si="1"/>
         <v>33817</v>
       </c>
-      <c r="U17" s="12">
+      <c r="U17" s="9">
         <f t="shared" si="1"/>
         <v>41321</v>
       </c>
-      <c r="V17" s="12">
+      <c r="V17" s="9">
         <f t="shared" si="1"/>
         <v>39321</v>
       </c>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="11"/>
-      <c r="AC17" s="11"/>
-      <c r="AD17" s="11"/>
-      <c r="AE17" s="11"/>
-      <c r="AF17" s="11"/>
-      <c r="AG17" s="11"/>
-      <c r="AH17" s="11"/>
-      <c r="AI17" s="11"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="8"/>
+      <c r="AI17" s="8"/>
       <c r="AJ17" s="3"/>
       <c r="AK17" s="3"/>
       <c r="AL17" s="3"/>
     </row>
-    <row r="18" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="8">
         <v>6685</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="8">
         <v>6636</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="8">
         <v>5309</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="8">
         <f>+U18-SUM(C18:E18)</f>
         <v>5896</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="8">
         <v>6058</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="8">
         <v>6204</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="8">
         <v>5181</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J18" s="8">
         <f>+V18-SUM(G18:I18)</f>
         <v>5527</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="8">
         <v>5131</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L18" s="8">
         <v>5967</v>
       </c>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11">
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8">
         <v>4620</v>
       </c>
-      <c r="T18" s="11">
+      <c r="T18" s="8">
         <v>20442</v>
       </c>
-      <c r="U18" s="11">
+      <c r="U18" s="8">
         <v>24526</v>
       </c>
-      <c r="V18" s="11">
+      <c r="V18" s="8">
         <v>22970</v>
       </c>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="11"/>
-      <c r="AC18" s="11"/>
-      <c r="AD18" s="11"/>
-      <c r="AE18" s="11"/>
-      <c r="AF18" s="11"/>
-      <c r="AG18" s="11"/>
-      <c r="AH18" s="11"/>
-      <c r="AI18" s="11"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="8"/>
       <c r="AJ18" s="3"/>
       <c r="AK18" s="3"/>
       <c r="AL18" s="3"/>
     </row>
-    <row r="19" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="8">
         <f t="shared" ref="C19:H19" si="2">+C17-C18</f>
         <v>4015</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="8">
         <f t="shared" si="2"/>
         <v>3722</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="8">
         <f t="shared" si="2"/>
         <v>4670</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="8">
         <f t="shared" si="2"/>
         <v>4388</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="8">
         <f t="shared" si="2"/>
         <v>3900</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="8">
         <f t="shared" si="2"/>
         <v>3509</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="8">
         <f>+I17-I18</f>
         <v>4442</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J19" s="8">
         <f t="shared" ref="J19:V19" si="3">+J17-J18</f>
         <v>4500</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K19" s="8">
         <f t="shared" si="3"/>
         <v>3848</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L19" s="8">
         <f t="shared" si="3"/>
         <v>3845</v>
       </c>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11">
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="11">
+      <c r="Q19" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R19" s="11">
+      <c r="R19" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S19" s="11">
+      <c r="S19" s="8">
         <f t="shared" si="3"/>
         <v>7571</v>
       </c>
-      <c r="T19" s="11">
+      <c r="T19" s="8">
         <f t="shared" si="3"/>
         <v>13375</v>
       </c>
-      <c r="U19" s="11">
+      <c r="U19" s="8">
         <f t="shared" si="3"/>
         <v>16795</v>
       </c>
-      <c r="V19" s="11">
+      <c r="V19" s="8">
         <f t="shared" si="3"/>
         <v>16351</v>
       </c>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11"/>
-      <c r="AA19" s="11"/>
-      <c r="AB19" s="11"/>
-      <c r="AC19" s="11"/>
-      <c r="AD19" s="11"/>
-      <c r="AE19" s="11"/>
-      <c r="AF19" s="11"/>
-      <c r="AG19" s="11"/>
-      <c r="AH19" s="11"/>
-      <c r="AI19" s="11"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="8"/>
       <c r="AJ19" s="3"/>
       <c r="AK19" s="3"/>
       <c r="AL19" s="3"/>
     </row>
-    <row r="20" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="8">
         <v>2388</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="8">
         <v>2562</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="8">
         <v>2291</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="8">
         <f>+U20-SUM(C20:E20)</f>
         <v>2455</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="8">
         <v>2232</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="8">
         <v>2461</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="8">
         <v>2385</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J20" s="8">
         <f>+V20-SUM(G20:I20)</f>
         <v>2218</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K20" s="8">
         <v>2194</v>
       </c>
-      <c r="L20" s="11">
+      <c r="L20" s="8">
         <v>2477</v>
       </c>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11">
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8">
         <v>4016</v>
       </c>
-      <c r="T20" s="11">
+      <c r="T20" s="8">
         <v>9678</v>
       </c>
-      <c r="U20" s="11">
+      <c r="U20" s="8">
         <v>9696</v>
       </c>
-      <c r="V20" s="11">
+      <c r="V20" s="8">
         <v>9296</v>
       </c>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="11"/>
-      <c r="AD20" s="11"/>
-      <c r="AE20" s="11"/>
-      <c r="AF20" s="11"/>
-      <c r="AG20" s="11"/>
-      <c r="AH20" s="11"/>
-      <c r="AI20" s="11"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
       <c r="AJ20" s="3"/>
       <c r="AK20" s="3"/>
       <c r="AL20" s="3"/>
     </row>
-    <row r="21" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="8">
         <v>2058</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="8">
         <v>1914</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="8">
         <v>1989</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="8">
         <f>+U21-SUM(C21:E21)</f>
         <v>2024</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="8">
         <v>1888</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="8">
         <v>1744</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="8">
         <v>1762</v>
       </c>
-      <c r="J21" s="11">
+      <c r="J21" s="8">
         <f>+V21-SUM(G21:I21)</f>
         <v>1643</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K21" s="8">
         <v>1547</v>
       </c>
-      <c r="L21" s="11">
+      <c r="L21" s="8">
         <v>1447</v>
       </c>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11">
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8">
         <v>1582</v>
       </c>
-      <c r="T21" s="11">
+      <c r="T21" s="8">
         <v>7193</v>
       </c>
-      <c r="U21" s="11">
+      <c r="U21" s="8">
         <v>7985</v>
       </c>
-      <c r="V21" s="11">
+      <c r="V21" s="8">
         <v>7037</v>
       </c>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="11"/>
-      <c r="AC21" s="11"/>
-      <c r="AD21" s="11"/>
-      <c r="AE21" s="11"/>
-      <c r="AF21" s="11"/>
-      <c r="AG21" s="11"/>
-      <c r="AH21" s="11"/>
-      <c r="AI21" s="11"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
       <c r="AJ21" s="3"/>
       <c r="AK21" s="3"/>
       <c r="AL21" s="3"/>
     </row>
-    <row r="22" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="8">
         <v>95</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="8">
         <v>146</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="8">
         <v>269</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="8">
         <f>+U22-SUM(C22:E22)</f>
         <v>75</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="8">
         <v>35</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="8">
         <v>117</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="8">
         <v>9</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J22" s="8">
         <f>+V22-SUM(G22:I22)</f>
         <v>286</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="8">
         <v>54</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L22" s="8">
         <v>80</v>
       </c>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11">
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8">
         <v>32</v>
       </c>
-      <c r="T22" s="11">
+      <c r="T22" s="8">
         <v>3757</v>
       </c>
-      <c r="U22" s="11">
+      <c r="U22" s="8">
         <v>585</v>
       </c>
-      <c r="V22" s="11">
+      <c r="V22" s="8">
         <v>447</v>
       </c>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="11"/>
-      <c r="AD22" s="11"/>
-      <c r="AE22" s="11"/>
-      <c r="AF22" s="11"/>
-      <c r="AG22" s="11"/>
-      <c r="AH22" s="11"/>
-      <c r="AI22" s="11"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8"/>
       <c r="AJ22" s="3"/>
       <c r="AK22" s="3"/>
       <c r="AL22" s="3"/>
     </row>
-    <row r="23" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="8">
         <v>31</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="8">
         <v>6</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="8">
         <v>24</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="8">
         <f>+U23-SUM(C23:E23)</f>
         <v>16</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="8">
         <v>12</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="8">
         <v>9395</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="8">
         <v>5</v>
       </c>
-      <c r="J23" s="11">
+      <c r="J23" s="8">
         <f>+V23-SUM(G23:I23)</f>
         <v>191</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K23" s="8">
         <v>90</v>
       </c>
-      <c r="L23" s="11">
+      <c r="L23" s="8">
         <v>26</v>
       </c>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11">
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8">
         <v>-71</v>
       </c>
-      <c r="T23" s="11">
+      <c r="T23" s="8">
         <v>117</v>
       </c>
-      <c r="U23" s="11">
+      <c r="U23" s="8">
         <v>77</v>
       </c>
-      <c r="V23" s="11">
+      <c r="V23" s="8">
         <v>9603</v>
       </c>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="11"/>
-      <c r="AB23" s="11"/>
-      <c r="AC23" s="11"/>
-      <c r="AD23" s="11"/>
-      <c r="AE23" s="11"/>
-      <c r="AF23" s="11"/>
-      <c r="AG23" s="11"/>
-      <c r="AH23" s="11"/>
-      <c r="AI23" s="11"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8"/>
       <c r="AJ23" s="3"/>
       <c r="AK23" s="3"/>
       <c r="AL23" s="3"/>
     </row>
-    <row r="24" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="8">
         <f>+C19-SUM(C20:C23)</f>
         <v>-557</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="8">
         <f t="shared" ref="D24:H24" si="4">+D19-SUM(D20:D23)</f>
         <v>-906</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="8">
         <f t="shared" si="4"/>
         <v>97</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="8">
         <f t="shared" si="4"/>
         <v>-182</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="8">
         <f t="shared" si="4"/>
         <v>-267</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="8">
         <f t="shared" si="4"/>
         <v>-10208</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="8">
         <f>+I19-SUM(I20:I23)</f>
         <v>281</v>
       </c>
-      <c r="J24" s="11">
+      <c r="J24" s="8">
         <f t="shared" ref="J24:V24" si="5">+J19-SUM(J20:J23)</f>
         <v>162</v>
       </c>
-      <c r="K24" s="11">
+      <c r="K24" s="8">
         <f t="shared" si="5"/>
         <v>-37</v>
       </c>
-      <c r="L24" s="11">
+      <c r="L24" s="8">
         <f t="shared" si="5"/>
         <v>-185</v>
       </c>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11">
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="11">
+      <c r="Q24" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R24" s="11">
+      <c r="R24" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S24" s="11">
+      <c r="S24" s="8">
         <f t="shared" si="5"/>
         <v>2012</v>
       </c>
-      <c r="T24" s="11">
+      <c r="T24" s="8">
         <f t="shared" si="5"/>
         <v>-7370</v>
       </c>
-      <c r="U24" s="11">
+      <c r="U24" s="8">
         <f t="shared" si="5"/>
         <v>-1548</v>
       </c>
-      <c r="V24" s="11">
+      <c r="V24" s="8">
         <f t="shared" si="5"/>
         <v>-10032</v>
       </c>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="11"/>
-      <c r="AB24" s="11"/>
-      <c r="AC24" s="11"/>
-      <c r="AD24" s="11"/>
-      <c r="AE24" s="11"/>
-      <c r="AF24" s="11"/>
-      <c r="AG24" s="11"/>
-      <c r="AH24" s="11"/>
-      <c r="AI24" s="11"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8"/>
       <c r="AJ24" s="3"/>
       <c r="AK24" s="3"/>
       <c r="AL24" s="3"/>
     </row>
-    <row r="25" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="25" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="8">
         <v>571</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="8">
         <v>574</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="8">
         <v>574</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="8">
         <f>+U25-SUM(C25:E25)</f>
         <v>502</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="8">
         <v>515</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="8">
         <v>518</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="8">
         <v>494</v>
       </c>
-      <c r="J25" s="11">
+      <c r="J25" s="8">
         <f>+V25-SUM(G25:I25)</f>
         <v>490</v>
       </c>
-      <c r="K25" s="11">
+      <c r="K25" s="8">
         <v>468</v>
       </c>
-      <c r="L25" s="11">
+      <c r="L25" s="8">
         <v>463</v>
       </c>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11">
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8">
         <v>633</v>
       </c>
-      <c r="T25" s="11">
+      <c r="T25" s="8">
         <v>1777</v>
       </c>
-      <c r="U25" s="11">
+      <c r="U25" s="8">
         <v>2221</v>
       </c>
-      <c r="V25" s="11">
+      <c r="V25" s="8">
         <v>2017</v>
       </c>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="11"/>
-      <c r="Z25" s="11"/>
-      <c r="AA25" s="11"/>
-      <c r="AB25" s="11"/>
-      <c r="AC25" s="11"/>
-      <c r="AD25" s="11"/>
-      <c r="AE25" s="11"/>
-      <c r="AF25" s="11"/>
-      <c r="AG25" s="11"/>
-      <c r="AH25" s="11"/>
-      <c r="AI25" s="11"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
       <c r="AJ25" s="3"/>
       <c r="AK25" s="3"/>
       <c r="AL25" s="3"/>
     </row>
-    <row r="26" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="26" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="8">
         <v>0</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="8">
         <v>-5</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="8">
         <v>22</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="8">
         <f>+U26-SUM(C26:E26)</f>
         <v>-17</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="8">
         <v>0</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="8">
         <v>542</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I26" s="8">
         <v>23</v>
       </c>
-      <c r="J26" s="11">
+      <c r="J26" s="8">
         <f>+V26-SUM(G26:I26)</f>
         <v>67</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K26" s="8">
         <v>-4</v>
       </c>
-      <c r="L26" s="11">
+      <c r="L26" s="8">
         <v>2958</v>
       </c>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11">
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8">
         <v>0</v>
       </c>
-      <c r="T26" s="11">
+      <c r="T26" s="8">
         <v>0</v>
       </c>
-      <c r="U26" s="11">
+      <c r="U26" s="8">
         <v>0</v>
       </c>
-      <c r="V26" s="11">
+      <c r="V26" s="8">
         <v>632</v>
       </c>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="11"/>
-      <c r="AA26" s="11"/>
-      <c r="AB26" s="11"/>
-      <c r="AC26" s="11"/>
-      <c r="AD26" s="11"/>
-      <c r="AE26" s="11"/>
-      <c r="AF26" s="11"/>
-      <c r="AG26" s="11"/>
-      <c r="AH26" s="11"/>
-      <c r="AI26" s="11"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8"/>
       <c r="AJ26" s="3"/>
       <c r="AK26" s="3"/>
       <c r="AL26" s="3"/>
     </row>
-    <row r="27" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="27" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="8">
         <v>37</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="8">
         <v>22</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="8">
         <v>14</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="8">
         <f>+U27-SUM(C27:E27)</f>
         <v>9</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="8">
         <v>48</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H27" s="8">
         <v>23</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="8">
         <v>18</v>
       </c>
-      <c r="J27" s="11">
+      <c r="J27" s="8">
         <f>+V27-SUM(G27:I27)</f>
         <v>32</v>
       </c>
-      <c r="K27" s="11">
+      <c r="K27" s="8">
         <v>7</v>
       </c>
-      <c r="L27" s="11">
+      <c r="L27" s="8">
         <v>-5</v>
       </c>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11">
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8">
         <v>18</v>
       </c>
-      <c r="T27" s="11">
+      <c r="T27" s="8">
         <v>160</v>
       </c>
-      <c r="U27" s="11">
+      <c r="U27" s="8">
         <v>82</v>
       </c>
-      <c r="V27" s="11">
+      <c r="V27" s="8">
         <v>121</v>
       </c>
-      <c r="W27" s="11"/>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="11"/>
-      <c r="Z27" s="11"/>
-      <c r="AA27" s="11"/>
-      <c r="AB27" s="11"/>
-      <c r="AC27" s="11"/>
-      <c r="AD27" s="11"/>
-      <c r="AE27" s="11"/>
-      <c r="AF27" s="11"/>
-      <c r="AG27" s="11"/>
-      <c r="AH27" s="11"/>
-      <c r="AI27" s="11"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="8"/>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="8"/>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="8"/>
       <c r="AJ27" s="3"/>
       <c r="AK27" s="3"/>
       <c r="AL27" s="3"/>
     </row>
-    <row r="28" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="28" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="8">
         <v>-73</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="8">
         <v>27</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="8">
         <v>-63</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="8">
         <f>+U28-SUM(C28:E28)</f>
         <v>97</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="8">
         <v>11</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H28" s="8">
         <v>172</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I28" s="8">
         <v>30</v>
       </c>
-      <c r="J28" s="11">
+      <c r="J28" s="8">
         <f>+V28-SUM(G28:I28)</f>
         <v>-63</v>
       </c>
-      <c r="K28" s="11">
+      <c r="K28" s="8">
         <v>82</v>
       </c>
-      <c r="L28" s="11">
+      <c r="L28" s="8">
         <v>139</v>
       </c>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11">
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8">
         <v>72</v>
       </c>
-      <c r="T28" s="11">
+      <c r="T28" s="8">
         <v>347</v>
       </c>
-      <c r="U28" s="11">
+      <c r="U28" s="8">
         <v>-12</v>
       </c>
-      <c r="V28" s="11">
+      <c r="V28" s="8">
         <v>150</v>
       </c>
-      <c r="W28" s="11"/>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="11"/>
-      <c r="Z28" s="11"/>
-      <c r="AA28" s="11"/>
-      <c r="AB28" s="11"/>
-      <c r="AC28" s="11"/>
-      <c r="AD28" s="11"/>
-      <c r="AE28" s="11"/>
-      <c r="AF28" s="11"/>
-      <c r="AG28" s="11"/>
-      <c r="AH28" s="11"/>
-      <c r="AI28" s="11"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="8"/>
+      <c r="AE28" s="8"/>
+      <c r="AF28" s="8"/>
+      <c r="AG28" s="8"/>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="8"/>
       <c r="AJ28" s="3"/>
       <c r="AK28" s="3"/>
       <c r="AL28" s="3"/>
     </row>
-    <row r="29" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="29" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="8">
         <f t="shared" ref="C29:H29" si="6">+C24-C25+C26-C27+C28</f>
         <v>-1238</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="8">
         <f t="shared" si="6"/>
         <v>-1480</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="8">
         <f t="shared" si="6"/>
         <v>-532</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="8">
         <f t="shared" si="6"/>
         <v>-613</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="8">
         <f t="shared" si="6"/>
         <v>-819</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H29" s="8">
         <f t="shared" si="6"/>
         <v>-10035</v>
       </c>
-      <c r="I29" s="11">
+      <c r="I29" s="8">
         <f>+I24-I25+I26-I27+I28</f>
         <v>-178</v>
       </c>
-      <c r="J29" s="11">
+      <c r="J29" s="8">
         <f t="shared" ref="J29:L29" si="7">+J24-J25+J26-J27+J28</f>
         <v>-356</v>
       </c>
-      <c r="K29" s="11">
+      <c r="K29" s="8">
         <f t="shared" si="7"/>
         <v>-434</v>
       </c>
-      <c r="L29" s="11">
+      <c r="L29" s="8">
         <f t="shared" si="7"/>
         <v>2454</v>
       </c>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11">
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8">
         <f t="shared" ref="P29:T29" si="8">+P24-P25+P26-P27+P28</f>
         <v>0</v>
       </c>
-      <c r="Q29" s="11">
+      <c r="Q29" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R29" s="11">
+      <c r="R29" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S29" s="11">
+      <c r="S29" s="8">
         <f t="shared" si="8"/>
         <v>1433</v>
       </c>
-      <c r="T29" s="11">
+      <c r="T29" s="8">
         <f t="shared" si="8"/>
         <v>-8960</v>
       </c>
-      <c r="U29" s="11">
+      <c r="U29" s="8">
         <f>+U24-U25+U26-U27+U28</f>
         <v>-3863</v>
       </c>
-      <c r="V29" s="11">
+      <c r="V29" s="8">
         <f>+V24-V25+V26-V27+V28</f>
         <v>-11388</v>
       </c>
-      <c r="W29" s="11"/>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="11"/>
-      <c r="Z29" s="11"/>
-      <c r="AA29" s="11"/>
-      <c r="AB29" s="11"/>
-      <c r="AC29" s="11"/>
-      <c r="AD29" s="11"/>
-      <c r="AE29" s="11"/>
-      <c r="AF29" s="11"/>
-      <c r="AG29" s="11"/>
-      <c r="AH29" s="11"/>
-      <c r="AI29" s="11"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="8"/>
+      <c r="AD29" s="8"/>
+      <c r="AE29" s="8"/>
+      <c r="AF29" s="8"/>
+      <c r="AG29" s="8"/>
+      <c r="AH29" s="8"/>
+      <c r="AI29" s="8"/>
       <c r="AJ29" s="3"/>
       <c r="AK29" s="3"/>
       <c r="AL29" s="3"/>
     </row>
-    <row r="30" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="30" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="8">
         <v>-178</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="8">
         <v>-260</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="8">
         <v>-125</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="8">
         <f>+U30-SUM(C30:E30)</f>
         <v>-221</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="8">
         <v>136</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" s="8">
         <v>-7</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I30" s="8">
         <v>-319</v>
       </c>
-      <c r="J30" s="11">
+      <c r="J30" s="8">
         <f>+V30-SUM(G30:I30)</f>
         <v>284</v>
       </c>
-      <c r="K30" s="11">
+      <c r="K30" s="8">
         <v>15</v>
       </c>
-      <c r="L30" s="11">
+      <c r="L30" s="8">
         <v>866</v>
       </c>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11">
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8">
         <v>236</v>
       </c>
-      <c r="T30" s="11">
+      <c r="T30" s="8">
         <v>-1663</v>
       </c>
-      <c r="U30" s="11">
+      <c r="U30" s="8">
         <v>-784</v>
       </c>
-      <c r="V30" s="11">
+      <c r="V30" s="8">
         <v>94</v>
       </c>
-      <c r="W30" s="11"/>
-      <c r="X30" s="11"/>
-      <c r="Y30" s="11"/>
-      <c r="Z30" s="11"/>
-      <c r="AA30" s="11"/>
-      <c r="AB30" s="11"/>
-      <c r="AC30" s="11"/>
-      <c r="AD30" s="11"/>
-      <c r="AE30" s="11"/>
-      <c r="AF30" s="11"/>
-      <c r="AG30" s="11"/>
-      <c r="AH30" s="11"/>
-      <c r="AI30" s="11"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="8"/>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="8"/>
+      <c r="AG30" s="8"/>
+      <c r="AH30" s="8"/>
+      <c r="AI30" s="8"/>
       <c r="AJ30" s="3"/>
       <c r="AK30" s="3"/>
       <c r="AL30" s="3"/>
     </row>
-    <row r="31" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="31" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="8">
         <f t="shared" ref="C31:H31" si="9">+C29-C30</f>
         <v>-1060</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="8">
         <f t="shared" si="9"/>
         <v>-1220</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="8">
         <f t="shared" si="9"/>
         <v>-407</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="8">
         <f t="shared" si="9"/>
         <v>-392</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G31" s="8">
         <f t="shared" si="9"/>
         <v>-955</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H31" s="8">
         <f t="shared" si="9"/>
         <v>-10028</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I31" s="8">
         <f>+I29-I30</f>
         <v>141</v>
       </c>
-      <c r="J31" s="11">
+      <c r="J31" s="8">
         <f t="shared" ref="J31:V31" si="10">+J29-J30</f>
         <v>-640</v>
       </c>
-      <c r="K31" s="11">
+      <c r="K31" s="8">
         <f t="shared" si="10"/>
         <v>-449</v>
       </c>
-      <c r="L31" s="11">
+      <c r="L31" s="8">
         <f t="shared" si="10"/>
         <v>1588</v>
       </c>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11">
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Q31" s="11">
+      <c r="Q31" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R31" s="11">
+      <c r="R31" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S31" s="11">
+      <c r="S31" s="8">
         <f t="shared" si="10"/>
         <v>1197</v>
       </c>
-      <c r="T31" s="11">
+      <c r="T31" s="8">
         <f t="shared" si="10"/>
         <v>-7297</v>
       </c>
-      <c r="U31" s="11">
+      <c r="U31" s="8">
         <f t="shared" si="10"/>
         <v>-3079</v>
       </c>
-      <c r="V31" s="11">
+      <c r="V31" s="8">
         <f t="shared" si="10"/>
         <v>-11482</v>
       </c>
-      <c r="W31" s="11"/>
-      <c r="X31" s="11"/>
-      <c r="Y31" s="11"/>
-      <c r="Z31" s="11"/>
-      <c r="AA31" s="11"/>
-      <c r="AB31" s="11"/>
-      <c r="AC31" s="11"/>
-      <c r="AD31" s="11"/>
-      <c r="AE31" s="11"/>
-      <c r="AF31" s="11"/>
-      <c r="AG31" s="11"/>
-      <c r="AH31" s="11"/>
-      <c r="AI31" s="11"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="8"/>
+      <c r="AD31" s="8"/>
+      <c r="AE31" s="8"/>
+      <c r="AF31" s="8"/>
+      <c r="AG31" s="8"/>
+      <c r="AH31" s="8"/>
+      <c r="AI31" s="8"/>
       <c r="AJ31" s="3"/>
       <c r="AK31" s="3"/>
       <c r="AL31" s="3"/>
     </row>
-    <row r="32" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="32" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="8">
         <v>9</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="8">
         <v>20</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="8">
         <v>10</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="8">
         <f>+U32-SUM(C32:E32)</f>
         <v>8</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G32" s="8">
         <v>11</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H32" s="8">
         <v>-42</v>
       </c>
-      <c r="I32" s="11">
+      <c r="I32" s="8">
         <v>6</v>
       </c>
-      <c r="J32" s="11">
+      <c r="J32" s="8">
         <f>+V32-SUM(G32:I32)</f>
         <v>-146</v>
       </c>
-      <c r="K32" s="11">
+      <c r="K32" s="8">
         <f>-4+8</f>
         <v>4</v>
       </c>
-      <c r="L32" s="11">
+      <c r="L32" s="8">
         <v>8</v>
       </c>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="11">
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8">
         <v>191</v>
       </c>
-      <c r="T32" s="11">
+      <c r="T32" s="8">
         <v>74</v>
       </c>
-      <c r="U32" s="11">
+      <c r="U32" s="8">
         <v>47</v>
       </c>
-      <c r="V32" s="11">
+      <c r="V32" s="8">
         <f>-129-42</f>
         <v>-171</v>
       </c>
-      <c r="W32" s="11"/>
-      <c r="X32" s="11"/>
-      <c r="Y32" s="11"/>
-      <c r="Z32" s="11"/>
-      <c r="AA32" s="11"/>
-      <c r="AB32" s="11"/>
-      <c r="AC32" s="11"/>
-      <c r="AD32" s="11"/>
-      <c r="AE32" s="11"/>
-      <c r="AF32" s="11"/>
-      <c r="AG32" s="11"/>
-      <c r="AH32" s="11"/>
-      <c r="AI32" s="11"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="8"/>
+      <c r="AD32" s="8"/>
+      <c r="AE32" s="8"/>
+      <c r="AF32" s="8"/>
+      <c r="AG32" s="8"/>
+      <c r="AH32" s="8"/>
+      <c r="AI32" s="8"/>
       <c r="AJ32" s="3"/>
       <c r="AK32" s="3"/>
       <c r="AL32" s="3"/>
     </row>
-    <row r="33" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="33" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="8">
         <f t="shared" ref="C33:H33" si="11">+C31-C32</f>
         <v>-1069</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="8">
         <f t="shared" si="11"/>
         <v>-1240</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="8">
         <f t="shared" si="11"/>
         <v>-417</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="8">
         <f t="shared" si="11"/>
         <v>-400</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G33" s="8">
         <f t="shared" si="11"/>
         <v>-966</v>
       </c>
-      <c r="H33" s="11">
+      <c r="H33" s="8">
         <f t="shared" si="11"/>
         <v>-9986</v>
       </c>
-      <c r="I33" s="11">
+      <c r="I33" s="8">
         <f>+I31-I32</f>
         <v>135</v>
       </c>
-      <c r="J33" s="11">
+      <c r="J33" s="8">
         <f t="shared" ref="J33:V33" si="12">+J31-J32</f>
         <v>-494</v>
       </c>
-      <c r="K33" s="11">
+      <c r="K33" s="8">
         <f t="shared" si="12"/>
         <v>-453</v>
       </c>
-      <c r="L33" s="11">
+      <c r="L33" s="8">
         <f t="shared" si="12"/>
         <v>1580</v>
       </c>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11">
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="11">
+      <c r="Q33" s="8">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="R33" s="11">
+      <c r="R33" s="8">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="S33" s="11">
+      <c r="S33" s="8">
         <f t="shared" si="12"/>
         <v>1006</v>
       </c>
-      <c r="T33" s="11">
+      <c r="T33" s="8">
         <f t="shared" si="12"/>
         <v>-7371</v>
       </c>
-      <c r="U33" s="11">
+      <c r="U33" s="8">
         <f t="shared" si="12"/>
         <v>-3126</v>
       </c>
-      <c r="V33" s="11">
+      <c r="V33" s="8">
         <f t="shared" si="12"/>
         <v>-11311</v>
       </c>
-      <c r="W33" s="11"/>
-      <c r="X33" s="11"/>
-      <c r="Y33" s="11"/>
-      <c r="Z33" s="11"/>
-      <c r="AA33" s="11"/>
-      <c r="AB33" s="11"/>
-      <c r="AC33" s="11"/>
-      <c r="AD33" s="11"/>
-      <c r="AE33" s="11"/>
-      <c r="AF33" s="11"/>
-      <c r="AG33" s="11"/>
-      <c r="AH33" s="11"/>
-      <c r="AI33" s="11"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="8"/>
+      <c r="AD33" s="8"/>
+      <c r="AE33" s="8"/>
+      <c r="AF33" s="8"/>
+      <c r="AG33" s="8"/>
+      <c r="AH33" s="8"/>
+      <c r="AI33" s="8"/>
       <c r="AJ33" s="3"/>
       <c r="AK33" s="3"/>
       <c r="AL33" s="3"/>
     </row>
-    <row r="34" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="11"/>
-      <c r="V34" s="11"/>
-      <c r="W34" s="11"/>
-      <c r="X34" s="11"/>
-      <c r="Y34" s="11"/>
-      <c r="Z34" s="11"/>
-      <c r="AA34" s="11"/>
-      <c r="AB34" s="11"/>
-      <c r="AC34" s="11"/>
-      <c r="AD34" s="11"/>
-      <c r="AE34" s="11"/>
-      <c r="AF34" s="11"/>
-      <c r="AG34" s="11"/>
-      <c r="AH34" s="11"/>
-      <c r="AI34" s="11"/>
+    <row r="34" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="8"/>
+      <c r="AD34" s="8"/>
+      <c r="AE34" s="8"/>
+      <c r="AF34" s="8"/>
+      <c r="AG34" s="8"/>
+      <c r="AH34" s="8"/>
+      <c r="AI34" s="8"/>
       <c r="AJ34" s="3"/>
       <c r="AK34" s="3"/>
       <c r="AL34" s="3"/>
     </row>
-    <row r="35" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="35" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="10">
         <f t="shared" ref="C35:H35" si="13">+C33/C36</f>
         <v>-0.43955592105263158</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="10">
         <f t="shared" si="13"/>
         <v>-0.50882232252769799</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="10">
         <f t="shared" si="13"/>
         <v>-0.17104183757178015</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="10">
         <f t="shared" si="13"/>
         <v>-0.16420361247947454</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="10">
         <f t="shared" si="13"/>
         <v>-0.39541547277936961</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="10">
         <f t="shared" si="13"/>
         <v>-4.0742554059567526</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="10">
         <f>+I33/I36</f>
         <v>5.5034651447207504E-2</v>
       </c>
-      <c r="J35" s="9">
+      <c r="J35" s="10">
         <f t="shared" ref="J35:L35" si="14">+J33/J36</f>
         <v>-0.20163265306122449</v>
       </c>
-      <c r="K35" s="9">
+      <c r="K35" s="10">
         <f t="shared" si="14"/>
         <v>-0.18399675060926077</v>
       </c>
-      <c r="L35" s="9">
+      <c r="L35" s="10">
         <f t="shared" si="14"/>
         <v>0.63786838918046018</v>
       </c>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
       <c r="O35" s="3"/>
-      <c r="P35" s="9" t="e">
+      <c r="P35" s="10" t="e">
         <f t="shared" ref="P35:V35" si="15">+P33/P36</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q35" s="9" t="e">
+      <c r="Q35" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R35" s="9" t="e">
+      <c r="R35" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S35" s="9">
+      <c r="S35" s="10">
         <f t="shared" si="15"/>
         <v>1.7108843537414966</v>
       </c>
-      <c r="T35" s="9">
+      <c r="T35" s="10">
         <f t="shared" si="15"/>
         <v>-3.7994845360824741</v>
       </c>
-      <c r="U35" s="9">
+      <c r="U35" s="10">
         <f t="shared" si="15"/>
         <v>-1.2832512315270936</v>
       </c>
-      <c r="V35" s="9">
+      <c r="V35" s="10">
         <f t="shared" si="15"/>
         <v>-4.6167346938775511</v>
       </c>
@@ -3366,8 +3380,8 @@
       <c r="AK35" s="3"/>
       <c r="AL35" s="3"/>
     </row>
-    <row r="36" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="36" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C36" s="3">
@@ -3436,7 +3450,7 @@
       <c r="AK36" s="3"/>
       <c r="AL36" s="3"/>
     </row>
-    <row r="37" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -3474,14 +3488,14 @@
       <c r="AK37" s="3"/>
       <c r="AL37" s="3"/>
     </row>
-    <row r="38" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
       <c r="G38" s="13">
         <f>+G17/C17-1</f>
         <v>-6.9345794392523419E-2</v>
@@ -3508,8 +3522,8 @@
       </c>
       <c r="M38" s="13"/>
       <c r="N38" s="13"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
       <c r="Q38" s="13" t="e">
         <f t="shared" ref="Q38:T38" si="17">+Q17/P17-1</f>
         <v>#DIV/0!</v>
@@ -3551,78 +3565,78 @@
       <c r="AK38" s="3"/>
       <c r="AL38" s="3"/>
     </row>
-    <row r="39" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="39" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="14">
         <f t="shared" ref="C39:H39" si="18">+C19/C17</f>
         <v>0.37523364485981309</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="14">
         <f t="shared" si="18"/>
         <v>0.3593357791079359</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="14">
         <f t="shared" si="18"/>
         <v>0.4679827638039884</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="14">
         <f t="shared" si="18"/>
         <v>0.42668222481524698</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="14">
         <f t="shared" si="18"/>
         <v>0.391644908616188</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="14">
         <f t="shared" si="18"/>
         <v>0.36126840317100795</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="14">
         <f>+I19/I17</f>
         <v>0.46160241089057469</v>
       </c>
-      <c r="J39" s="7">
+      <c r="J39" s="14">
         <f t="shared" ref="J39:K39" si="19">+J19/J17</f>
         <v>0.44878827166650043</v>
       </c>
-      <c r="K39" s="7">
+      <c r="K39" s="14">
         <f t="shared" si="19"/>
         <v>0.42855551843189665</v>
       </c>
-      <c r="L39" s="7">
+      <c r="L39" s="14">
         <f t="shared" ref="L39" si="20">+L19/L17</f>
         <v>0.39186710150835713</v>
       </c>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
       <c r="O39" s="3"/>
-      <c r="P39" s="7" t="e">
+      <c r="P39" s="14" t="e">
         <f t="shared" ref="P39:V39" si="21">+P19/P17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q39" s="7" t="e">
+      <c r="Q39" s="14" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R39" s="7" t="e">
+      <c r="R39" s="14" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S39" s="7">
+      <c r="S39" s="14">
         <f t="shared" si="21"/>
         <v>0.62103190878516934</v>
       </c>
-      <c r="T39" s="7">
+      <c r="T39" s="14">
         <f t="shared" si="21"/>
         <v>0.39551113345358846</v>
       </c>
-      <c r="U39" s="7">
+      <c r="U39" s="14">
         <f t="shared" si="21"/>
         <v>0.40645192517122042</v>
       </c>
-      <c r="V39" s="7">
+      <c r="V39" s="14">
         <f t="shared" si="21"/>
         <v>0.41583377838813868</v>
       </c>
@@ -3643,78 +3657,78 @@
       <c r="AK39" s="3"/>
       <c r="AL39" s="3"/>
     </row>
-    <row r="40" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+    <row r="40" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="14">
         <f t="shared" ref="C40:H40" si="22">+C24/C17</f>
         <v>-5.205607476635514E-2</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="14">
         <f t="shared" si="22"/>
         <v>-8.7468623286348718E-2</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="14">
         <f t="shared" si="22"/>
         <v>9.7204128670207429E-3</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="14">
         <f t="shared" si="22"/>
         <v>-1.7697394010112798E-2</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="14">
         <f t="shared" si="22"/>
         <v>-2.6812612974492871E-2</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="14">
         <f t="shared" si="22"/>
         <v>-1.0509626274065684</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="14">
         <f>+I24/I17</f>
         <v>2.9200872908656344E-2</v>
       </c>
-      <c r="J40" s="7">
+      <c r="J40" s="14">
         <f t="shared" ref="J40:K40" si="23">+J24/J17</f>
         <v>1.6156377779994017E-2</v>
       </c>
-      <c r="K40" s="7">
+      <c r="K40" s="14">
         <f t="shared" si="23"/>
         <v>-4.1207261387682373E-3</v>
       </c>
-      <c r="L40" s="7">
+      <c r="L40" s="14">
         <f t="shared" ref="L40" si="24">+L24/L17</f>
         <v>-1.8854463921728494E-2</v>
       </c>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
       <c r="O40" s="3"/>
-      <c r="P40" s="7" t="e">
+      <c r="P40" s="14" t="e">
         <f t="shared" ref="P40:V40" si="25">+P24/P17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q40" s="7" t="e">
+      <c r="Q40" s="14" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R40" s="7" t="e">
+      <c r="R40" s="14" t="e">
         <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S40" s="7">
+      <c r="S40" s="14">
         <f t="shared" si="25"/>
         <v>0.16503978344680503</v>
       </c>
-      <c r="T40" s="7">
+      <c r="T40" s="14">
         <f t="shared" si="25"/>
         <v>-0.21793772363012687</v>
       </c>
-      <c r="U40" s="7">
+      <c r="U40" s="14">
         <f t="shared" si="25"/>
         <v>-3.7462791316763874E-2</v>
       </c>
-      <c r="V40" s="7">
+      <c r="V40" s="14">
         <f t="shared" si="25"/>
         <v>-0.25513084611276415</v>
       </c>
@@ -3735,78 +3749,78 @@
       <c r="AK40" s="3"/>
       <c r="AL40" s="3"/>
     </row>
-    <row r="41" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="41" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="14">
         <f t="shared" ref="C41:H41" si="26">+C30/C29</f>
         <v>0.14378029079159935</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="14">
         <f t="shared" si="26"/>
         <v>0.17567567567567569</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="14">
         <f t="shared" si="26"/>
         <v>0.23496240601503759</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="14">
         <f t="shared" si="26"/>
         <v>0.36052202283849921</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="14">
         <f t="shared" si="26"/>
         <v>-0.16605616605616605</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41" s="14">
         <f t="shared" si="26"/>
         <v>6.9755854509217737E-4</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="14">
         <f>+I30/I29</f>
         <v>1.7921348314606742</v>
       </c>
-      <c r="J41" s="7">
+      <c r="J41" s="14">
         <f t="shared" ref="J41:K41" si="27">+J30/J29</f>
         <v>-0.797752808988764</v>
       </c>
-      <c r="K41" s="7">
+      <c r="K41" s="14">
         <f t="shared" si="27"/>
         <v>-3.4562211981566823E-2</v>
       </c>
-      <c r="L41" s="7">
+      <c r="L41" s="14">
         <f t="shared" ref="L41" si="28">+L30/L29</f>
         <v>0.35289323553382235</v>
       </c>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
       <c r="O41" s="3"/>
-      <c r="P41" s="7" t="e">
+      <c r="P41" s="14" t="e">
         <f t="shared" ref="P41:V41" si="29">+P30/P29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q41" s="7" t="e">
+      <c r="Q41" s="14" t="e">
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R41" s="7" t="e">
+      <c r="R41" s="14" t="e">
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S41" s="7">
+      <c r="S41" s="14">
         <f t="shared" si="29"/>
         <v>0.16468946266573622</v>
       </c>
-      <c r="T41" s="7">
+      <c r="T41" s="14">
         <f t="shared" si="29"/>
         <v>0.18560267857142856</v>
       </c>
-      <c r="U41" s="7">
+      <c r="U41" s="14">
         <f t="shared" si="29"/>
         <v>0.2029510742945897</v>
       </c>
-      <c r="V41" s="7">
+      <c r="V41" s="14">
         <f t="shared" si="29"/>
         <v>-8.2543027748507199E-3</v>
       </c>
@@ -3827,27 +3841,27 @@
       <c r="AK41" s="3"/>
       <c r="AL41" s="3"/>
     </row>
-    <row r="42" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
+    <row r="42" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
       <c r="O42" s="3"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
-      <c r="S42" s="7"/>
-      <c r="T42" s="7"/>
-      <c r="U42" s="7"/>
-      <c r="V42" s="7"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="14"/>
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
@@ -3865,8 +3879,8 @@
       <c r="AK42" s="3"/>
       <c r="AL42" s="3"/>
     </row>
-    <row r="43" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B43" s="8" t="s">
+    <row r="43" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B43" s="5" t="s">
         <v>78</v>
       </c>
       <c r="C43" s="3"/>
@@ -3906,8 +3920,8 @@
       <c r="AK43" s="3"/>
       <c r="AL43" s="3"/>
     </row>
-    <row r="44" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+    <row r="44" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C44" s="3"/>
@@ -3951,8 +3965,8 @@
       <c r="AK44" s="3"/>
       <c r="AL44" s="3"/>
     </row>
-    <row r="45" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+    <row r="45" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C45" s="3"/>
@@ -3996,8 +4010,8 @@
       <c r="AK45" s="3"/>
       <c r="AL45" s="3"/>
     </row>
-    <row r="46" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+    <row r="46" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B46" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C46" s="3"/>
@@ -4041,8 +4055,8 @@
       <c r="AK46" s="3"/>
       <c r="AL46" s="3"/>
     </row>
-    <row r="47" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+    <row r="47" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C47" s="3"/>
@@ -4100,8 +4114,8 @@
       <c r="AK47" s="3"/>
       <c r="AL47" s="3"/>
     </row>
-    <row r="48" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+    <row r="48" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B48" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C48" s="3"/>
@@ -4145,8 +4159,8 @@
       <c r="AK48" s="3"/>
       <c r="AL48" s="3"/>
     </row>
-    <row r="49" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+    <row r="49" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B49" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C49" s="3"/>
@@ -4190,8 +4204,8 @@
       <c r="AK49" s="3"/>
       <c r="AL49" s="3"/>
     </row>
-    <row r="50" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+    <row r="50" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C50" s="3"/>
@@ -4235,8 +4249,8 @@
       <c r="AK50" s="3"/>
       <c r="AL50" s="3"/>
     </row>
-    <row r="51" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+    <row r="51" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B51" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C51" s="3"/>
@@ -4280,8 +4294,8 @@
       <c r="AK51" s="3"/>
       <c r="AL51" s="3"/>
     </row>
-    <row r="52" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+    <row r="52" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B52" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C52" s="3"/>
@@ -4325,8 +4339,8 @@
       <c r="AK52" s="3"/>
       <c r="AL52" s="3"/>
     </row>
-    <row r="53" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+    <row r="53" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B53" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C53" s="3"/>
@@ -4387,8 +4401,8 @@
       <c r="AK53" s="3"/>
       <c r="AL53" s="3"/>
     </row>
-    <row r="54" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+    <row r="54" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B54" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C54" s="3"/>
@@ -4449,7 +4463,7 @@
       <c r="AK54" s="3"/>
       <c r="AL54" s="3"/>
     </row>
-    <row r="55" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -4487,8 +4501,8 @@
       <c r="AK55" s="3"/>
       <c r="AL55" s="3"/>
     </row>
-    <row r="56" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+    <row r="56" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B56" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C56" s="3"/>
@@ -4532,8 +4546,8 @@
       <c r="AK56" s="3"/>
       <c r="AL56" s="3"/>
     </row>
-    <row r="57" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+    <row r="57" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B57" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C57" s="3"/>
@@ -4577,8 +4591,8 @@
       <c r="AK57" s="3"/>
       <c r="AL57" s="3"/>
     </row>
-    <row r="58" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
+    <row r="58" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B58" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C58" s="3"/>
@@ -4622,8 +4636,8 @@
       <c r="AK58" s="3"/>
       <c r="AL58" s="3"/>
     </row>
-    <row r="59" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
+    <row r="59" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B59" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C59" s="3"/>
@@ -4667,8 +4681,8 @@
       <c r="AK59" s="3"/>
       <c r="AL59" s="3"/>
     </row>
-    <row r="60" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
+    <row r="60" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B60" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C60" s="3"/>
@@ -4729,8 +4743,8 @@
       <c r="AK60" s="3"/>
       <c r="AL60" s="3"/>
     </row>
-    <row r="61" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
+    <row r="61" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B61" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C61" s="3"/>
@@ -4774,8 +4788,8 @@
       <c r="AK61" s="3"/>
       <c r="AL61" s="3"/>
     </row>
-    <row r="62" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
+    <row r="62" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B62" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C62" s="3"/>
@@ -4819,8 +4833,8 @@
       <c r="AK62" s="3"/>
       <c r="AL62" s="3"/>
     </row>
-    <row r="63" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
+    <row r="63" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B63" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C63" s="3"/>
@@ -4864,8 +4878,8 @@
       <c r="AK63" s="3"/>
       <c r="AL63" s="3"/>
     </row>
-    <row r="64" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
+    <row r="64" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B64" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C64" s="3"/>
@@ -4926,8 +4940,8 @@
       <c r="AK64" s="3"/>
       <c r="AL64" s="3"/>
     </row>
-    <row r="65" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
+    <row r="65" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B65" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C65" s="3"/>
@@ -4988,7 +5002,7 @@
       <c r="AK65" s="3"/>
       <c r="AL65" s="3"/>
     </row>
-    <row r="66" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -5026,8 +5040,8 @@
       <c r="AK66" s="3"/>
       <c r="AL66" s="3"/>
     </row>
-    <row r="67" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+    <row r="67" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B67" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C67" s="3"/>
@@ -5073,8 +5087,8 @@
       <c r="AK67" s="3"/>
       <c r="AL67" s="3"/>
     </row>
-    <row r="68" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
+    <row r="68" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B68" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C68" s="3"/>
@@ -5120,8 +5134,8 @@
       <c r="AK68" s="3"/>
       <c r="AL68" s="3"/>
     </row>
-    <row r="69" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
+    <row r="69" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B69" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C69" s="3"/>
@@ -5179,8 +5193,8 @@
       <c r="AK69" s="3"/>
       <c r="AL69" s="3"/>
     </row>
-    <row r="70" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
+    <row r="70" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B70" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C70" s="3"/>
@@ -5226,8 +5240,8 @@
       <c r="AK70" s="3"/>
       <c r="AL70" s="3"/>
     </row>
-    <row r="71" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
+    <row r="71" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="B71" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C71" s="3"/>
@@ -5273,7 +5287,7 @@
       <c r="AK71" s="3"/>
       <c r="AL71" s="3"/>
     </row>
-    <row r="72" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -5311,7 +5325,7 @@
       <c r="AK72" s="3"/>
       <c r="AL72" s="3"/>
     </row>
-    <row r="73" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -5349,7 +5363,7 @@
       <c r="AK73" s="3"/>
       <c r="AL73" s="3"/>
     </row>
-    <row r="74" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -5387,7 +5401,7 @@
       <c r="AK74" s="3"/>
       <c r="AL74" s="3"/>
     </row>
-    <row r="75" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -5425,7 +5439,7 @@
       <c r="AK75" s="3"/>
       <c r="AL75" s="3"/>
     </row>
-    <row r="76" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -5463,7 +5477,7 @@
       <c r="AK76" s="3"/>
       <c r="AL76" s="3"/>
     </row>
-    <row r="77" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -5501,7 +5515,7 @@
       <c r="AK77" s="3"/>
       <c r="AL77" s="3"/>
     </row>
-    <row r="78" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -5539,7 +5553,7 @@
       <c r="AK78" s="3"/>
       <c r="AL78" s="3"/>
     </row>
-    <row r="79" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -5577,7 +5591,7 @@
       <c r="AK79" s="3"/>
       <c r="AL79" s="3"/>
     </row>
-    <row r="80" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:38" x14ac:dyDescent="0.2">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -5615,7 +5629,7 @@
       <c r="AK80" s="3"/>
       <c r="AL80" s="3"/>
     </row>
-    <row r="81" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -5653,7 +5667,7 @@
       <c r="AK81" s="3"/>
       <c r="AL81" s="3"/>
     </row>
-    <row r="82" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -5691,7 +5705,7 @@
       <c r="AK82" s="3"/>
       <c r="AL82" s="3"/>
     </row>
-    <row r="83" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -5729,7 +5743,7 @@
       <c r="AK83" s="3"/>
       <c r="AL83" s="3"/>
     </row>
-    <row r="84" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -5767,7 +5781,7 @@
       <c r="AK84" s="3"/>
       <c r="AL84" s="3"/>
     </row>
-    <row r="85" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -5805,7 +5819,7 @@
       <c r="AK85" s="3"/>
       <c r="AL85" s="3"/>
     </row>
-    <row r="86" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -5843,7 +5857,7 @@
       <c r="AK86" s="3"/>
       <c r="AL86" s="3"/>
     </row>
-    <row r="87" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -5881,7 +5895,7 @@
       <c r="AK87" s="3"/>
       <c r="AL87" s="3"/>
     </row>
-    <row r="88" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -5919,7 +5933,7 @@
       <c r="AK88" s="3"/>
       <c r="AL88" s="3"/>
     </row>
-    <row r="89" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -5957,7 +5971,7 @@
       <c r="AK89" s="3"/>
       <c r="AL89" s="3"/>
     </row>
-    <row r="90" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -5995,7 +6009,7 @@
       <c r="AK90" s="3"/>
       <c r="AL90" s="3"/>
     </row>
-    <row r="91" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -6033,7 +6047,7 @@
       <c r="AK91" s="3"/>
       <c r="AL91" s="3"/>
     </row>
-    <row r="92" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -6071,7 +6085,7 @@
       <c r="AK92" s="3"/>
       <c r="AL92" s="3"/>
     </row>
-    <row r="93" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -6109,7 +6123,7 @@
       <c r="AK93" s="3"/>
       <c r="AL93" s="3"/>
     </row>
-    <row r="94" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -6147,7 +6161,7 @@
       <c r="AK94" s="3"/>
       <c r="AL94" s="3"/>
     </row>
-    <row r="95" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -6185,7 +6199,7 @@
       <c r="AK95" s="3"/>
       <c r="AL95" s="3"/>
     </row>
-    <row r="96" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -6223,7 +6237,7 @@
       <c r="AK96" s="3"/>
       <c r="AL96" s="3"/>
     </row>
-    <row r="97" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -6261,7 +6275,7 @@
       <c r="AK97" s="3"/>
       <c r="AL97" s="3"/>
     </row>
-    <row r="98" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -6299,7 +6313,7 @@
       <c r="AK98" s="3"/>
       <c r="AL98" s="3"/>
     </row>
-    <row r="99" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -6337,7 +6351,7 @@
       <c r="AK99" s="3"/>
       <c r="AL99" s="3"/>
     </row>
-    <row r="100" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -6375,7 +6389,7 @@
       <c r="AK100" s="3"/>
       <c r="AL100" s="3"/>
     </row>
-    <row r="101" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -6413,7 +6427,7 @@
       <c r="AK101" s="3"/>
       <c r="AL101" s="3"/>
     </row>
-    <row r="102" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -6451,7 +6465,7 @@
       <c r="AK102" s="3"/>
       <c r="AL102" s="3"/>
     </row>
-    <row r="103" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -6489,7 +6503,7 @@
       <c r="AK103" s="3"/>
       <c r="AL103" s="3"/>
     </row>
-    <row r="104" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -6527,7 +6541,7 @@
       <c r="AK104" s="3"/>
       <c r="AL104" s="3"/>
     </row>
-    <row r="105" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -6565,7 +6579,7 @@
       <c r="AK105" s="3"/>
       <c r="AL105" s="3"/>
     </row>
-    <row r="106" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -6603,7 +6617,7 @@
       <c r="AK106" s="3"/>
       <c r="AL106" s="3"/>
     </row>
-    <row r="107" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -6641,7 +6655,7 @@
       <c r="AK107" s="3"/>
       <c r="AL107" s="3"/>
     </row>
-    <row r="108" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -6679,7 +6693,7 @@
       <c r="AK108" s="3"/>
       <c r="AL108" s="3"/>
     </row>
-    <row r="109" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -6717,7 +6731,7 @@
       <c r="AK109" s="3"/>
       <c r="AL109" s="3"/>
     </row>
-    <row r="110" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -6755,7 +6769,7 @@
       <c r="AK110" s="3"/>
       <c r="AL110" s="3"/>
     </row>
-    <row r="111" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -6793,7 +6807,7 @@
       <c r="AK111" s="3"/>
       <c r="AL111" s="3"/>
     </row>
-    <row r="112" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -6831,7 +6845,7 @@
       <c r="AK112" s="3"/>
       <c r="AL112" s="3"/>
     </row>
-    <row r="113" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -6869,7 +6883,7 @@
       <c r="AK113" s="3"/>
       <c r="AL113" s="3"/>
     </row>
-    <row r="114" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -6907,7 +6921,7 @@
       <c r="AK114" s="3"/>
       <c r="AL114" s="3"/>
     </row>
-    <row r="115" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -6945,7 +6959,7 @@
       <c r="AK115" s="3"/>
       <c r="AL115" s="3"/>
     </row>
-    <row r="116" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -6983,7 +6997,7 @@
       <c r="AK116" s="3"/>
       <c r="AL116" s="3"/>
     </row>
-    <row r="117" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -7021,7 +7035,7 @@
       <c r="AK117" s="3"/>
       <c r="AL117" s="3"/>
     </row>
-    <row r="118" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -7059,7 +7073,7 @@
       <c r="AK118" s="3"/>
       <c r="AL118" s="3"/>
     </row>
-    <row r="119" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -7097,7 +7111,7 @@
       <c r="AK119" s="3"/>
       <c r="AL119" s="3"/>
     </row>
-    <row r="120" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -7135,7 +7149,7 @@
       <c r="AK120" s="3"/>
       <c r="AL120" s="3"/>
     </row>
-    <row r="121" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -7173,7 +7187,7 @@
       <c r="AK121" s="3"/>
       <c r="AL121" s="3"/>
     </row>
-    <row r="122" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -7211,7 +7225,7 @@
       <c r="AK122" s="3"/>
       <c r="AL122" s="3"/>
     </row>
-    <row r="123" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -7249,7 +7263,7 @@
       <c r="AK123" s="3"/>
       <c r="AL123" s="3"/>
     </row>
-    <row r="124" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -7287,7 +7301,7 @@
       <c r="AK124" s="3"/>
       <c r="AL124" s="3"/>
     </row>
-    <row r="125" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -7325,7 +7339,7 @@
       <c r="AK125" s="3"/>
       <c r="AL125" s="3"/>
     </row>
-    <row r="126" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -7363,7 +7377,7 @@
       <c r="AK126" s="3"/>
       <c r="AL126" s="3"/>
     </row>
-    <row r="127" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -7401,7 +7415,7 @@
       <c r="AK127" s="3"/>
       <c r="AL127" s="3"/>
     </row>
-    <row r="128" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -7439,7 +7453,7 @@
       <c r="AK128" s="3"/>
       <c r="AL128" s="3"/>
     </row>
-    <row r="129" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -7477,7 +7491,7 @@
       <c r="AK129" s="3"/>
       <c r="AL129" s="3"/>
     </row>
-    <row r="130" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -7515,7 +7529,7 @@
       <c r="AK130" s="3"/>
       <c r="AL130" s="3"/>
     </row>
-    <row r="131" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -7553,7 +7567,7 @@
       <c r="AK131" s="3"/>
       <c r="AL131" s="3"/>
     </row>
-    <row r="132" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -7591,7 +7605,7 @@
       <c r="AK132" s="3"/>
       <c r="AL132" s="3"/>
     </row>
-    <row r="133" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -7629,7 +7643,7 @@
       <c r="AK133" s="3"/>
       <c r="AL133" s="3"/>
     </row>
-    <row r="134" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -7667,7 +7681,7 @@
       <c r="AK134" s="3"/>
       <c r="AL134" s="3"/>
     </row>
-    <row r="135" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -7705,7 +7719,7 @@
       <c r="AK135" s="3"/>
       <c r="AL135" s="3"/>
     </row>
-    <row r="136" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -7743,7 +7757,7 @@
       <c r="AK136" s="3"/>
       <c r="AL136" s="3"/>
     </row>
-    <row r="137" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -7781,7 +7795,7 @@
       <c r="AK137" s="3"/>
       <c r="AL137" s="3"/>
     </row>
-    <row r="138" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -7819,7 +7833,7 @@
       <c r="AK138" s="3"/>
       <c r="AL138" s="3"/>
     </row>
-    <row r="139" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -7857,7 +7871,7 @@
       <c r="AK139" s="3"/>
       <c r="AL139" s="3"/>
     </row>
-    <row r="140" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -7895,7 +7909,7 @@
       <c r="AK140" s="3"/>
       <c r="AL140" s="3"/>
     </row>
-    <row r="141" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -7933,7 +7947,7 @@
       <c r="AK141" s="3"/>
       <c r="AL141" s="3"/>
     </row>
-    <row r="142" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -7971,7 +7985,7 @@
       <c r="AK142" s="3"/>
       <c r="AL142" s="3"/>
     </row>
-    <row r="143" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -8009,7 +8023,7 @@
       <c r="AK143" s="3"/>
       <c r="AL143" s="3"/>
     </row>
-    <row r="144" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -8047,7 +8061,7 @@
       <c r="AK144" s="3"/>
       <c r="AL144" s="3"/>
     </row>
-    <row r="145" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -8085,7 +8099,7 @@
       <c r="AK145" s="3"/>
       <c r="AL145" s="3"/>
     </row>
-    <row r="146" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -8123,7 +8137,7 @@
       <c r="AK146" s="3"/>
       <c r="AL146" s="3"/>
     </row>
-    <row r="147" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -8161,7 +8175,7 @@
       <c r="AK147" s="3"/>
       <c r="AL147" s="3"/>
     </row>
-    <row r="148" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -8199,7 +8213,7 @@
       <c r="AK148" s="3"/>
       <c r="AL148" s="3"/>
     </row>
-    <row r="149" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -8237,7 +8251,7 @@
       <c r="AK149" s="3"/>
       <c r="AL149" s="3"/>
     </row>
-    <row r="150" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -8275,7 +8289,7 @@
       <c r="AK150" s="3"/>
       <c r="AL150" s="3"/>
     </row>
-    <row r="151" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -8313,7 +8327,7 @@
       <c r="AK151" s="3"/>
       <c r="AL151" s="3"/>
     </row>
-    <row r="152" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -8351,7 +8365,7 @@
       <c r="AK152" s="3"/>
       <c r="AL152" s="3"/>
     </row>
-    <row r="153" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -8389,7 +8403,7 @@
       <c r="AK153" s="3"/>
       <c r="AL153" s="3"/>
     </row>
-    <row r="154" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -8427,7 +8441,7 @@
       <c r="AK154" s="3"/>
       <c r="AL154" s="3"/>
     </row>
-    <row r="155" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -8465,7 +8479,7 @@
       <c r="AK155" s="3"/>
       <c r="AL155" s="3"/>
     </row>
-    <row r="156" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -8503,7 +8517,7 @@
       <c r="AK156" s="3"/>
       <c r="AL156" s="3"/>
     </row>
-    <row r="157" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -8541,7 +8555,7 @@
       <c r="AK157" s="3"/>
       <c r="AL157" s="3"/>
     </row>
-    <row r="158" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -8579,7 +8593,7 @@
       <c r="AK158" s="3"/>
       <c r="AL158" s="3"/>
     </row>
-    <row r="159" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -8617,7 +8631,7 @@
       <c r="AK159" s="3"/>
       <c r="AL159" s="3"/>
     </row>
-    <row r="160" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -8655,7 +8669,7 @@
       <c r="AK160" s="3"/>
       <c r="AL160" s="3"/>
     </row>
-    <row r="161" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -8693,7 +8707,7 @@
       <c r="AK161" s="3"/>
       <c r="AL161" s="3"/>
     </row>
-    <row r="162" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -8731,7 +8745,7 @@
       <c r="AK162" s="3"/>
       <c r="AL162" s="3"/>
     </row>
-    <row r="163" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -8769,7 +8783,7 @@
       <c r="AK163" s="3"/>
       <c r="AL163" s="3"/>
     </row>
-    <row r="164" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -8807,7 +8821,7 @@
       <c r="AK164" s="3"/>
       <c r="AL164" s="3"/>
     </row>
-    <row r="165" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -8845,7 +8859,7 @@
       <c r="AK165" s="3"/>
       <c r="AL165" s="3"/>
     </row>
-    <row r="166" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -8883,7 +8897,7 @@
       <c r="AK166" s="3"/>
       <c r="AL166" s="3"/>
     </row>
-    <row r="167" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -8921,7 +8935,7 @@
       <c r="AK167" s="3"/>
       <c r="AL167" s="3"/>
     </row>
-    <row r="168" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -8959,7 +8973,7 @@
       <c r="AK168" s="3"/>
       <c r="AL168" s="3"/>
     </row>
-    <row r="169" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -8997,7 +9011,7 @@
       <c r="AK169" s="3"/>
       <c r="AL169" s="3"/>
     </row>
-    <row r="170" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -9035,7 +9049,7 @@
       <c r="AK170" s="3"/>
       <c r="AL170" s="3"/>
     </row>
-    <row r="171" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -9073,7 +9087,7 @@
       <c r="AK171" s="3"/>
       <c r="AL171" s="3"/>
     </row>
-    <row r="172" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -9111,7 +9125,7 @@
       <c r="AK172" s="3"/>
       <c r="AL172" s="3"/>
     </row>
-    <row r="173" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -9149,7 +9163,7 @@
       <c r="AK173" s="3"/>
       <c r="AL173" s="3"/>
     </row>
-    <row r="174" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -9187,7 +9201,7 @@
       <c r="AK174" s="3"/>
       <c r="AL174" s="3"/>
     </row>
-    <row r="175" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -9225,7 +9239,7 @@
       <c r="AK175" s="3"/>
       <c r="AL175" s="3"/>
     </row>
-    <row r="176" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -9263,7 +9277,7 @@
       <c r="AK176" s="3"/>
       <c r="AL176" s="3"/>
     </row>
-    <row r="177" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -9301,7 +9315,7 @@
       <c r="AK177" s="3"/>
       <c r="AL177" s="3"/>
     </row>
-    <row r="178" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -9339,7 +9353,7 @@
       <c r="AK178" s="3"/>
       <c r="AL178" s="3"/>
     </row>
-    <row r="179" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -9377,7 +9391,7 @@
       <c r="AK179" s="3"/>
       <c r="AL179" s="3"/>
     </row>
-    <row r="180" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -9415,7 +9429,7 @@
       <c r="AK180" s="3"/>
       <c r="AL180" s="3"/>
     </row>
-    <row r="181" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -9453,7 +9467,7 @@
       <c r="AK181" s="3"/>
       <c r="AL181" s="3"/>
     </row>
-    <row r="182" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -9491,7 +9505,7 @@
       <c r="AK182" s="3"/>
       <c r="AL182" s="3"/>
     </row>
-    <row r="183" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -9529,7 +9543,7 @@
       <c r="AK183" s="3"/>
       <c r="AL183" s="3"/>
     </row>
-    <row r="184" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -9567,7 +9581,7 @@
       <c r="AK184" s="3"/>
       <c r="AL184" s="3"/>
     </row>
-    <row r="185" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -9605,7 +9619,7 @@
       <c r="AK185" s="3"/>
       <c r="AL185" s="3"/>
     </row>
-    <row r="186" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -9643,7 +9657,7 @@
       <c r="AK186" s="3"/>
       <c r="AL186" s="3"/>
     </row>
-    <row r="187" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -9681,7 +9695,7 @@
       <c r="AK187" s="3"/>
       <c r="AL187" s="3"/>
     </row>
-    <row r="188" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -9719,7 +9733,7 @@
       <c r="AK188" s="3"/>
       <c r="AL188" s="3"/>
     </row>
-    <row r="189" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -9757,7 +9771,7 @@
       <c r="AK189" s="3"/>
       <c r="AL189" s="3"/>
     </row>
-    <row r="190" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -9795,7 +9809,7 @@
       <c r="AK190" s="3"/>
       <c r="AL190" s="3"/>
     </row>
-    <row r="191" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -9833,7 +9847,7 @@
       <c r="AK191" s="3"/>
       <c r="AL191" s="3"/>
     </row>
-    <row r="192" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -9871,7 +9885,7 @@
       <c r="AK192" s="3"/>
       <c r="AL192" s="3"/>
     </row>
-    <row r="193" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -9909,7 +9923,7 @@
       <c r="AK193" s="3"/>
       <c r="AL193" s="3"/>
     </row>
-    <row r="194" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -9947,7 +9961,7 @@
       <c r="AK194" s="3"/>
       <c r="AL194" s="3"/>
     </row>
-    <row r="195" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -9985,7 +9999,7 @@
       <c r="AK195" s="3"/>
       <c r="AL195" s="3"/>
     </row>
-    <row r="196" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -10023,7 +10037,7 @@
       <c r="AK196" s="3"/>
       <c r="AL196" s="3"/>
     </row>
-    <row r="197" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -10061,7 +10075,7 @@
       <c r="AK197" s="3"/>
       <c r="AL197" s="3"/>
     </row>
-    <row r="198" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -10099,7 +10113,7 @@
       <c r="AK198" s="3"/>
       <c r="AL198" s="3"/>
     </row>
-    <row r="199" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -10137,7 +10151,7 @@
       <c r="AK199" s="3"/>
       <c r="AL199" s="3"/>
     </row>
-    <row r="200" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -10175,7 +10189,7 @@
       <c r="AK200" s="3"/>
       <c r="AL200" s="3"/>
     </row>
-    <row r="201" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -10213,7 +10227,7 @@
       <c r="AK201" s="3"/>
       <c r="AL201" s="3"/>
     </row>
-    <row r="202" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -10251,7 +10265,7 @@
       <c r="AK202" s="3"/>
       <c r="AL202" s="3"/>
     </row>
-    <row r="203" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -10289,7 +10303,7 @@
       <c r="AK203" s="3"/>
       <c r="AL203" s="3"/>
     </row>
-    <row r="204" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -10327,7 +10341,7 @@
       <c r="AK204" s="3"/>
       <c r="AL204" s="3"/>
     </row>
-    <row r="205" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -10365,7 +10379,7 @@
       <c r="AK205" s="3"/>
       <c r="AL205" s="3"/>
     </row>
-    <row r="206" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -10403,7 +10417,7 @@
       <c r="AK206" s="3"/>
       <c r="AL206" s="3"/>
     </row>
-    <row r="207" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -10441,7 +10455,7 @@
       <c r="AK207" s="3"/>
       <c r="AL207" s="3"/>
     </row>
-    <row r="208" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -10479,7 +10493,7 @@
       <c r="AK208" s="3"/>
       <c r="AL208" s="3"/>
     </row>
-    <row r="209" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -10517,7 +10531,7 @@
       <c r="AK209" s="3"/>
       <c r="AL209" s="3"/>
     </row>
-    <row r="210" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -10555,7 +10569,7 @@
       <c r="AK210" s="3"/>
       <c r="AL210" s="3"/>
     </row>
-    <row r="211" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
@@ -10593,7 +10607,7 @@
       <c r="AK211" s="3"/>
       <c r="AL211" s="3"/>
     </row>
-    <row r="212" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -10631,7 +10645,7 @@
       <c r="AK212" s="3"/>
       <c r="AL212" s="3"/>
     </row>
-    <row r="213" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
@@ -10669,7 +10683,7 @@
       <c r="AK213" s="3"/>
       <c r="AL213" s="3"/>
     </row>
-    <row r="214" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
@@ -10707,7 +10721,7 @@
       <c r="AK214" s="3"/>
       <c r="AL214" s="3"/>
     </row>
-    <row r="215" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
@@ -10745,7 +10759,7 @@
       <c r="AK215" s="3"/>
       <c r="AL215" s="3"/>
     </row>
-    <row r="216" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -10783,7 +10797,7 @@
       <c r="AK216" s="3"/>
       <c r="AL216" s="3"/>
     </row>
-    <row r="217" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -10821,7 +10835,7 @@
       <c r="AK217" s="3"/>
       <c r="AL217" s="3"/>
     </row>
-    <row r="218" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -10859,7 +10873,7 @@
       <c r="AK218" s="3"/>
       <c r="AL218" s="3"/>
     </row>
-    <row r="219" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
@@ -10897,7 +10911,7 @@
       <c r="AK219" s="3"/>
       <c r="AL219" s="3"/>
     </row>
-    <row r="220" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
@@ -10935,7 +10949,7 @@
       <c r="AK220" s="3"/>
       <c r="AL220" s="3"/>
     </row>
-    <row r="221" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
@@ -10973,7 +10987,7 @@
       <c r="AK221" s="3"/>
       <c r="AL221" s="3"/>
     </row>
-    <row r="222" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
@@ -11011,7 +11025,7 @@
       <c r="AK222" s="3"/>
       <c r="AL222" s="3"/>
     </row>
-    <row r="223" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
@@ -11049,7 +11063,7 @@
       <c r="AK223" s="3"/>
       <c r="AL223" s="3"/>
     </row>
-    <row r="224" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
@@ -11087,7 +11101,7 @@
       <c r="AK224" s="3"/>
       <c r="AL224" s="3"/>
     </row>
-    <row r="225" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
@@ -11125,7 +11139,7 @@
       <c r="AK225" s="3"/>
       <c r="AL225" s="3"/>
     </row>
-    <row r="226" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
@@ -11163,7 +11177,7 @@
       <c r="AK226" s="3"/>
       <c r="AL226" s="3"/>
     </row>
-    <row r="227" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
@@ -11201,7 +11215,7 @@
       <c r="AK227" s="3"/>
       <c r="AL227" s="3"/>
     </row>
-    <row r="228" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
@@ -11239,7 +11253,7 @@
       <c r="AK228" s="3"/>
       <c r="AL228" s="3"/>
     </row>
-    <row r="229" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
@@ -11277,7 +11291,7 @@
       <c r="AK229" s="3"/>
       <c r="AL229" s="3"/>
     </row>
-    <row r="230" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
@@ -11315,7 +11329,7 @@
       <c r="AK230" s="3"/>
       <c r="AL230" s="3"/>
     </row>
-    <row r="231" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -11353,7 +11367,7 @@
       <c r="AK231" s="3"/>
       <c r="AL231" s="3"/>
     </row>
-    <row r="232" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -11391,7 +11405,7 @@
       <c r="AK232" s="3"/>
       <c r="AL232" s="3"/>
     </row>
-    <row r="233" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
@@ -11429,7 +11443,7 @@
       <c r="AK233" s="3"/>
       <c r="AL233" s="3"/>
     </row>
-    <row r="234" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
@@ -11467,7 +11481,7 @@
       <c r="AK234" s="3"/>
       <c r="AL234" s="3"/>
     </row>
-    <row r="235" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
@@ -11505,7 +11519,7 @@
       <c r="AK235" s="3"/>
       <c r="AL235" s="3"/>
     </row>
-    <row r="236" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -11543,7 +11557,7 @@
       <c r="AK236" s="3"/>
       <c r="AL236" s="3"/>
     </row>
-    <row r="237" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
@@ -11581,7 +11595,7 @@
       <c r="AK237" s="3"/>
       <c r="AL237" s="3"/>
     </row>
-    <row r="238" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
@@ -11619,7 +11633,7 @@
       <c r="AK238" s="3"/>
       <c r="AL238" s="3"/>
     </row>
-    <row r="239" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -11657,7 +11671,7 @@
       <c r="AK239" s="3"/>
       <c r="AL239" s="3"/>
     </row>
-    <row r="240" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
@@ -11695,7 +11709,7 @@
       <c r="AK240" s="3"/>
       <c r="AL240" s="3"/>
     </row>
-    <row r="241" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -11733,7 +11747,7 @@
       <c r="AK241" s="3"/>
       <c r="AL241" s="3"/>
     </row>
-    <row r="242" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
@@ -11771,7 +11785,7 @@
       <c r="AK242" s="3"/>
       <c r="AL242" s="3"/>
     </row>
-    <row r="243" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
@@ -11809,7 +11823,7 @@
       <c r="AK243" s="3"/>
       <c r="AL243" s="3"/>
     </row>
-    <row r="244" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
@@ -11847,7 +11861,7 @@
       <c r="AK244" s="3"/>
       <c r="AL244" s="3"/>
     </row>
-    <row r="245" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -11885,7 +11899,7 @@
       <c r="AK245" s="3"/>
       <c r="AL245" s="3"/>
     </row>
-    <row r="246" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
@@ -11923,7 +11937,7 @@
       <c r="AK246" s="3"/>
       <c r="AL246" s="3"/>
     </row>
-    <row r="247" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
@@ -11961,7 +11975,7 @@
       <c r="AK247" s="3"/>
       <c r="AL247" s="3"/>
     </row>
-    <row r="248" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
@@ -11999,7 +12013,7 @@
       <c r="AK248" s="3"/>
       <c r="AL248" s="3"/>
     </row>
-    <row r="249" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
@@ -12037,7 +12051,7 @@
       <c r="AK249" s="3"/>
       <c r="AL249" s="3"/>
     </row>
-    <row r="250" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
@@ -12075,7 +12089,7 @@
       <c r="AK250" s="3"/>
       <c r="AL250" s="3"/>
     </row>
-    <row r="251" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
@@ -12113,7 +12127,7 @@
       <c r="AK251" s="3"/>
       <c r="AL251" s="3"/>
     </row>
-    <row r="252" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
@@ -12151,7 +12165,7 @@
       <c r="AK252" s="3"/>
       <c r="AL252" s="3"/>
     </row>
-    <row r="253" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
@@ -12189,7 +12203,7 @@
       <c r="AK253" s="3"/>
       <c r="AL253" s="3"/>
     </row>
-    <row r="254" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -12227,7 +12241,7 @@
       <c r="AK254" s="3"/>
       <c r="AL254" s="3"/>
     </row>
-    <row r="255" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
@@ -12265,7 +12279,7 @@
       <c r="AK255" s="3"/>
       <c r="AL255" s="3"/>
     </row>
-    <row r="256" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
@@ -12303,7 +12317,7 @@
       <c r="AK256" s="3"/>
       <c r="AL256" s="3"/>
     </row>
-    <row r="257" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
@@ -12341,7 +12355,7 @@
       <c r="AK257" s="3"/>
       <c r="AL257" s="3"/>
     </row>
-    <row r="258" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -12379,7 +12393,7 @@
       <c r="AK258" s="3"/>
       <c r="AL258" s="3"/>
     </row>
-    <row r="259" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
@@ -12417,7 +12431,7 @@
       <c r="AK259" s="3"/>
       <c r="AL259" s="3"/>
     </row>
-    <row r="260" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
@@ -12455,7 +12469,7 @@
       <c r="AK260" s="3"/>
       <c r="AL260" s="3"/>
     </row>
-    <row r="261" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
@@ -12493,7 +12507,7 @@
       <c r="AK261" s="3"/>
       <c r="AL261" s="3"/>
     </row>
-    <row r="262" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
@@ -12531,7 +12545,7 @@
       <c r="AK262" s="3"/>
       <c r="AL262" s="3"/>
     </row>
-    <row r="263" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
@@ -12569,7 +12583,7 @@
       <c r="AK263" s="3"/>
       <c r="AL263" s="3"/>
     </row>
-    <row r="264" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
@@ -12607,7 +12621,7 @@
       <c r="AK264" s="3"/>
       <c r="AL264" s="3"/>
     </row>
-    <row r="265" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
@@ -12645,7 +12659,7 @@
       <c r="AK265" s="3"/>
       <c r="AL265" s="3"/>
     </row>
-    <row r="266" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
@@ -12683,7 +12697,7 @@
       <c r="AK266" s="3"/>
       <c r="AL266" s="3"/>
     </row>
-    <row r="267" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
@@ -12721,7 +12735,7 @@
       <c r="AK267" s="3"/>
       <c r="AL267" s="3"/>
     </row>
-    <row r="268" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
@@ -12759,7 +12773,7 @@
       <c r="AK268" s="3"/>
       <c r="AL268" s="3"/>
     </row>
-    <row r="269" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
@@ -12797,7 +12811,7 @@
       <c r="AK269" s="3"/>
       <c r="AL269" s="3"/>
     </row>
-    <row r="270" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
@@ -12835,7 +12849,7 @@
       <c r="AK270" s="3"/>
       <c r="AL270" s="3"/>
     </row>
-    <row r="271" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
@@ -12873,7 +12887,7 @@
       <c r="AK271" s="3"/>
       <c r="AL271" s="3"/>
     </row>
-    <row r="272" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
@@ -12911,7 +12925,7 @@
       <c r="AK272" s="3"/>
       <c r="AL272" s="3"/>
     </row>
-    <row r="273" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
@@ -12949,7 +12963,7 @@
       <c r="AK273" s="3"/>
       <c r="AL273" s="3"/>
     </row>
-    <row r="274" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
@@ -12987,7 +13001,7 @@
       <c r="AK274" s="3"/>
       <c r="AL274" s="3"/>
     </row>
-    <row r="275" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
@@ -13025,7 +13039,7 @@
       <c r="AK275" s="3"/>
       <c r="AL275" s="3"/>
     </row>
-    <row r="276" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
@@ -13063,7 +13077,7 @@
       <c r="AK276" s="3"/>
       <c r="AL276" s="3"/>
     </row>
-    <row r="277" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
@@ -13101,7 +13115,7 @@
       <c r="AK277" s="3"/>
       <c r="AL277" s="3"/>
     </row>
-    <row r="278" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
@@ -13139,7 +13153,7 @@
       <c r="AK278" s="3"/>
       <c r="AL278" s="3"/>
     </row>
-    <row r="279" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
@@ -13177,7 +13191,7 @@
       <c r="AK279" s="3"/>
       <c r="AL279" s="3"/>
     </row>
-    <row r="280" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
@@ -13215,7 +13229,7 @@
       <c r="AK280" s="3"/>
       <c r="AL280" s="3"/>
     </row>
-    <row r="281" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
@@ -13253,7 +13267,7 @@
       <c r="AK281" s="3"/>
       <c r="AL281" s="3"/>
     </row>
-    <row r="282" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
@@ -13291,7 +13305,7 @@
       <c r="AK282" s="3"/>
       <c r="AL282" s="3"/>
     </row>
-    <row r="283" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
@@ -13329,7 +13343,7 @@
       <c r="AK283" s="3"/>
       <c r="AL283" s="3"/>
     </row>
-    <row r="284" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
@@ -13367,7 +13381,7 @@
       <c r="AK284" s="3"/>
       <c r="AL284" s="3"/>
     </row>
-    <row r="285" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
@@ -13405,7 +13419,7 @@
       <c r="AK285" s="3"/>
       <c r="AL285" s="3"/>
     </row>
-    <row r="286" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
@@ -13443,7 +13457,7 @@
       <c r="AK286" s="3"/>
       <c r="AL286" s="3"/>
     </row>
-    <row r="287" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
@@ -13481,7 +13495,7 @@
       <c r="AK287" s="3"/>
       <c r="AL287" s="3"/>
     </row>
-    <row r="288" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
@@ -13519,7 +13533,7 @@
       <c r="AK288" s="3"/>
       <c r="AL288" s="3"/>
     </row>
-    <row r="289" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
@@ -13557,7 +13571,7 @@
       <c r="AK289" s="3"/>
       <c r="AL289" s="3"/>
     </row>
-    <row r="290" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
@@ -13595,7 +13609,7 @@
       <c r="AK290" s="3"/>
       <c r="AL290" s="3"/>
     </row>
-    <row r="291" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
@@ -13633,7 +13647,7 @@
       <c r="AK291" s="3"/>
       <c r="AL291" s="3"/>
     </row>
-    <row r="292" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
@@ -13671,7 +13685,7 @@
       <c r="AK292" s="3"/>
       <c r="AL292" s="3"/>
     </row>
-    <row r="293" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
@@ -13709,7 +13723,7 @@
       <c r="AK293" s="3"/>
       <c r="AL293" s="3"/>
     </row>
-    <row r="294" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
@@ -13747,7 +13761,7 @@
       <c r="AK294" s="3"/>
       <c r="AL294" s="3"/>
     </row>
-    <row r="295" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
       <c r="E295" s="3"/>
@@ -13785,7 +13799,7 @@
       <c r="AK295" s="3"/>
       <c r="AL295" s="3"/>
     </row>
-    <row r="296" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
       <c r="E296" s="3"/>
@@ -13823,7 +13837,7 @@
       <c r="AK296" s="3"/>
       <c r="AL296" s="3"/>
     </row>
-    <row r="297" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
       <c r="E297" s="3"/>
@@ -13861,7 +13875,7 @@
       <c r="AK297" s="3"/>
       <c r="AL297" s="3"/>
     </row>
-    <row r="298" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
@@ -13899,7 +13913,7 @@
       <c r="AK298" s="3"/>
       <c r="AL298" s="3"/>
     </row>
-    <row r="299" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
@@ -13937,7 +13951,7 @@
       <c r="AK299" s="3"/>
       <c r="AL299" s="3"/>
     </row>
-    <row r="300" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
@@ -13975,7 +13989,7 @@
       <c r="AK300" s="3"/>
       <c r="AL300" s="3"/>
     </row>
-    <row r="301" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
@@ -14013,7 +14027,7 @@
       <c r="AK301" s="3"/>
       <c r="AL301" s="3"/>
     </row>
-    <row r="302" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
       <c r="E302" s="3"/>
@@ -14051,7 +14065,7 @@
       <c r="AK302" s="3"/>
       <c r="AL302" s="3"/>
     </row>
-    <row r="303" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
       <c r="E303" s="3"/>
@@ -14089,7 +14103,7 @@
       <c r="AK303" s="3"/>
       <c r="AL303" s="3"/>
     </row>
-    <row r="304" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
       <c r="E304" s="3"/>
@@ -14127,7 +14141,7 @@
       <c r="AK304" s="3"/>
       <c r="AL304" s="3"/>
     </row>
-    <row r="305" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
@@ -14165,7 +14179,7 @@
       <c r="AK305" s="3"/>
       <c r="AL305" s="3"/>
     </row>
-    <row r="306" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
       <c r="E306" s="3"/>
@@ -14203,7 +14217,7 @@
       <c r="AK306" s="3"/>
       <c r="AL306" s="3"/>
     </row>
-    <row r="307" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
@@ -14241,7 +14255,7 @@
       <c r="AK307" s="3"/>
       <c r="AL307" s="3"/>
     </row>
-    <row r="308" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
       <c r="E308" s="3"/>
@@ -14279,7 +14293,7 @@
       <c r="AK308" s="3"/>
       <c r="AL308" s="3"/>
     </row>
-    <row r="309" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
       <c r="E309" s="3"/>
@@ -14317,7 +14331,7 @@
       <c r="AK309" s="3"/>
       <c r="AL309" s="3"/>
     </row>
-    <row r="310" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
       <c r="E310" s="3"/>
@@ -14355,7 +14369,7 @@
       <c r="AK310" s="3"/>
       <c r="AL310" s="3"/>
     </row>
-    <row r="311" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
@@ -14393,7 +14407,7 @@
       <c r="AK311" s="3"/>
       <c r="AL311" s="3"/>
     </row>
-    <row r="312" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
@@ -14431,7 +14445,7 @@
       <c r="AK312" s="3"/>
       <c r="AL312" s="3"/>
     </row>
-    <row r="313" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
       <c r="E313" s="3"/>
@@ -14469,7 +14483,7 @@
       <c r="AK313" s="3"/>
       <c r="AL313" s="3"/>
     </row>
-    <row r="314" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
@@ -14507,7 +14521,7 @@
       <c r="AK314" s="3"/>
       <c r="AL314" s="3"/>
     </row>
-    <row r="315" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
@@ -14545,7 +14559,7 @@
       <c r="AK315" s="3"/>
       <c r="AL315" s="3"/>
     </row>
-    <row r="316" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
       <c r="E316" s="3"/>
@@ -14583,7 +14597,7 @@
       <c r="AK316" s="3"/>
       <c r="AL316" s="3"/>
     </row>
-    <row r="317" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
       <c r="E317" s="3"/>
@@ -14621,7 +14635,7 @@
       <c r="AK317" s="3"/>
       <c r="AL317" s="3"/>
     </row>
-    <row r="318" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
@@ -14659,7 +14673,7 @@
       <c r="AK318" s="3"/>
       <c r="AL318" s="3"/>
     </row>
-    <row r="319" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
       <c r="E319" s="3"/>
@@ -14697,7 +14711,7 @@
       <c r="AK319" s="3"/>
       <c r="AL319" s="3"/>
     </row>
-    <row r="320" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
       <c r="E320" s="3"/>
@@ -14735,7 +14749,7 @@
       <c r="AK320" s="3"/>
       <c r="AL320" s="3"/>
     </row>
-    <row r="321" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
       <c r="E321" s="3"/>
@@ -14773,7 +14787,7 @@
       <c r="AK321" s="3"/>
       <c r="AL321" s="3"/>
     </row>
-    <row r="322" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
       <c r="E322" s="3"/>
@@ -14811,7 +14825,7 @@
       <c r="AK322" s="3"/>
       <c r="AL322" s="3"/>
     </row>
-    <row r="323" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
       <c r="E323" s="3"/>
@@ -14849,7 +14863,7 @@
       <c r="AK323" s="3"/>
       <c r="AL323" s="3"/>
     </row>
-    <row r="324" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
       <c r="E324" s="3"/>
@@ -14887,7 +14901,7 @@
       <c r="AK324" s="3"/>
       <c r="AL324" s="3"/>
     </row>
-    <row r="325" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
       <c r="E325" s="3"/>
@@ -14925,7 +14939,7 @@
       <c r="AK325" s="3"/>
       <c r="AL325" s="3"/>
     </row>
-    <row r="326" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
       <c r="E326" s="3"/>
@@ -14963,7 +14977,7 @@
       <c r="AK326" s="3"/>
       <c r="AL326" s="3"/>
     </row>
-    <row r="327" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
       <c r="E327" s="3"/>
@@ -15001,7 +15015,7 @@
       <c r="AK327" s="3"/>
       <c r="AL327" s="3"/>
     </row>
-    <row r="328" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
       <c r="E328" s="3"/>
@@ -15039,7 +15053,7 @@
       <c r="AK328" s="3"/>
       <c r="AL328" s="3"/>
     </row>
-    <row r="329" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
       <c r="E329" s="3"/>
@@ -15077,7 +15091,7 @@
       <c r="AK329" s="3"/>
       <c r="AL329" s="3"/>
     </row>
-    <row r="330" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
       <c r="E330" s="3"/>
@@ -15115,7 +15129,7 @@
       <c r="AK330" s="3"/>
       <c r="AL330" s="3"/>
     </row>
-    <row r="331" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
@@ -15153,7 +15167,7 @@
       <c r="AK331" s="3"/>
       <c r="AL331" s="3"/>
     </row>
-    <row r="332" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
@@ -15191,7 +15205,7 @@
       <c r="AK332" s="3"/>
       <c r="AL332" s="3"/>
     </row>
-    <row r="333" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
@@ -15229,7 +15243,7 @@
       <c r="AK333" s="3"/>
       <c r="AL333" s="3"/>
     </row>
-    <row r="334" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C334" s="3"/>
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
@@ -15267,7 +15281,7 @@
       <c r="AK334" s="3"/>
       <c r="AL334" s="3"/>
     </row>
-    <row r="335" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C335" s="3"/>
       <c r="D335" s="3"/>
       <c r="E335" s="3"/>
@@ -15305,7 +15319,7 @@
       <c r="AK335" s="3"/>
       <c r="AL335" s="3"/>
     </row>
-    <row r="336" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
       <c r="E336" s="3"/>
@@ -15343,7 +15357,7 @@
       <c r="AK336" s="3"/>
       <c r="AL336" s="3"/>
     </row>
-    <row r="337" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
       <c r="E337" s="3"/>
@@ -15381,7 +15395,7 @@
       <c r="AK337" s="3"/>
       <c r="AL337" s="3"/>
     </row>
-    <row r="338" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
       <c r="E338" s="3"/>
@@ -15419,7 +15433,7 @@
       <c r="AK338" s="3"/>
       <c r="AL338" s="3"/>
     </row>
-    <row r="339" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
       <c r="E339" s="3"/>
@@ -15457,7 +15471,7 @@
       <c r="AK339" s="3"/>
       <c r="AL339" s="3"/>
     </row>
-    <row r="340" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
       <c r="E340" s="3"/>
@@ -15495,7 +15509,7 @@
       <c r="AK340" s="3"/>
       <c r="AL340" s="3"/>
     </row>
-    <row r="341" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
       <c r="E341" s="3"/>
@@ -15533,7 +15547,7 @@
       <c r="AK341" s="3"/>
       <c r="AL341" s="3"/>
     </row>
-    <row r="342" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
       <c r="E342" s="3"/>
@@ -15571,7 +15585,7 @@
       <c r="AK342" s="3"/>
       <c r="AL342" s="3"/>
     </row>
-    <row r="343" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
       <c r="E343" s="3"/>
@@ -15609,7 +15623,7 @@
       <c r="AK343" s="3"/>
       <c r="AL343" s="3"/>
     </row>
-    <row r="344" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
       <c r="E344" s="3"/>
@@ -15647,7 +15661,7 @@
       <c r="AK344" s="3"/>
       <c r="AL344" s="3"/>
     </row>
-    <row r="345" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
       <c r="E345" s="3"/>
@@ -15685,7 +15699,7 @@
       <c r="AK345" s="3"/>
       <c r="AL345" s="3"/>
     </row>
-    <row r="346" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
       <c r="E346" s="3"/>
@@ -15723,7 +15737,7 @@
       <c r="AK346" s="3"/>
       <c r="AL346" s="3"/>
     </row>
-    <row r="347" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C347" s="3"/>
       <c r="D347" s="3"/>
       <c r="E347" s="3"/>
@@ -15761,7 +15775,7 @@
       <c r="AK347" s="3"/>
       <c r="AL347" s="3"/>
     </row>
-    <row r="348" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C348" s="3"/>
       <c r="D348" s="3"/>
       <c r="E348" s="3"/>
@@ -15799,7 +15813,7 @@
       <c r="AK348" s="3"/>
       <c r="AL348" s="3"/>
     </row>
-    <row r="349" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C349" s="3"/>
       <c r="D349" s="3"/>
       <c r="E349" s="3"/>
@@ -15837,7 +15851,7 @@
       <c r="AK349" s="3"/>
       <c r="AL349" s="3"/>
     </row>
-    <row r="350" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C350" s="3"/>
       <c r="D350" s="3"/>
       <c r="E350" s="3"/>
@@ -15875,7 +15889,7 @@
       <c r="AK350" s="3"/>
       <c r="AL350" s="3"/>
     </row>
-    <row r="351" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C351" s="3"/>
       <c r="D351" s="3"/>
       <c r="E351" s="3"/>
@@ -15913,7 +15927,7 @@
       <c r="AK351" s="3"/>
       <c r="AL351" s="3"/>
     </row>
-    <row r="352" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C352" s="3"/>
       <c r="D352" s="3"/>
       <c r="E352" s="3"/>
@@ -15951,7 +15965,7 @@
       <c r="AK352" s="3"/>
       <c r="AL352" s="3"/>
     </row>
-    <row r="353" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C353" s="3"/>
       <c r="D353" s="3"/>
       <c r="E353" s="3"/>
@@ -15989,7 +16003,7 @@
       <c r="AK353" s="3"/>
       <c r="AL353" s="3"/>
     </row>
-    <row r="354" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C354" s="3"/>
       <c r="D354" s="3"/>
       <c r="E354" s="3"/>
@@ -16027,7 +16041,7 @@
       <c r="AK354" s="3"/>
       <c r="AL354" s="3"/>
     </row>
-    <row r="355" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
       <c r="E355" s="3"/>
@@ -16065,7 +16079,7 @@
       <c r="AK355" s="3"/>
       <c r="AL355" s="3"/>
     </row>
-    <row r="356" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C356" s="3"/>
       <c r="D356" s="3"/>
       <c r="E356" s="3"/>
@@ -16103,7 +16117,7 @@
       <c r="AK356" s="3"/>
       <c r="AL356" s="3"/>
     </row>
-    <row r="357" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C357" s="3"/>
       <c r="D357" s="3"/>
       <c r="E357" s="3"/>
@@ -16141,7 +16155,7 @@
       <c r="AK357" s="3"/>
       <c r="AL357" s="3"/>
     </row>
-    <row r="358" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C358" s="3"/>
       <c r="D358" s="3"/>
       <c r="E358" s="3"/>
@@ -16179,7 +16193,7 @@
       <c r="AK358" s="3"/>
       <c r="AL358" s="3"/>
     </row>
-    <row r="359" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C359" s="3"/>
       <c r="D359" s="3"/>
       <c r="E359" s="3"/>
@@ -16217,7 +16231,7 @@
       <c r="AK359" s="3"/>
       <c r="AL359" s="3"/>
     </row>
-    <row r="360" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C360" s="3"/>
       <c r="D360" s="3"/>
       <c r="E360" s="3"/>
@@ -16255,7 +16269,7 @@
       <c r="AK360" s="3"/>
       <c r="AL360" s="3"/>
     </row>
-    <row r="361" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C361" s="3"/>
       <c r="D361" s="3"/>
       <c r="E361" s="3"/>
@@ -16293,7 +16307,7 @@
       <c r="AK361" s="3"/>
       <c r="AL361" s="3"/>
     </row>
-    <row r="362" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C362" s="3"/>
       <c r="D362" s="3"/>
       <c r="E362" s="3"/>
@@ -16331,7 +16345,7 @@
       <c r="AK362" s="3"/>
       <c r="AL362" s="3"/>
     </row>
-    <row r="363" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C363" s="3"/>
       <c r="D363" s="3"/>
       <c r="E363" s="3"/>
@@ -16369,7 +16383,7 @@
       <c r="AK363" s="3"/>
       <c r="AL363" s="3"/>
     </row>
-    <row r="364" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C364" s="3"/>
       <c r="D364" s="3"/>
       <c r="E364" s="3"/>
@@ -16407,7 +16421,7 @@
       <c r="AK364" s="3"/>
       <c r="AL364" s="3"/>
     </row>
-    <row r="365" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C365" s="3"/>
       <c r="D365" s="3"/>
       <c r="E365" s="3"/>
@@ -16445,7 +16459,7 @@
       <c r="AK365" s="3"/>
       <c r="AL365" s="3"/>
     </row>
-    <row r="366" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C366" s="3"/>
       <c r="D366" s="3"/>
       <c r="E366" s="3"/>
@@ -16483,7 +16497,7 @@
       <c r="AK366" s="3"/>
       <c r="AL366" s="3"/>
     </row>
-    <row r="367" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C367" s="3"/>
       <c r="D367" s="3"/>
       <c r="E367" s="3"/>
@@ -16521,7 +16535,7 @@
       <c r="AK367" s="3"/>
       <c r="AL367" s="3"/>
     </row>
-    <row r="368" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C368" s="3"/>
       <c r="D368" s="3"/>
       <c r="E368" s="3"/>
@@ -16559,7 +16573,7 @@
       <c r="AK368" s="3"/>
       <c r="AL368" s="3"/>
     </row>
-    <row r="369" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C369" s="3"/>
       <c r="D369" s="3"/>
       <c r="E369" s="3"/>
@@ -16597,7 +16611,7 @@
       <c r="AK369" s="3"/>
       <c r="AL369" s="3"/>
     </row>
-    <row r="370" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C370" s="3"/>
       <c r="D370" s="3"/>
       <c r="E370" s="3"/>
@@ -16635,7 +16649,7 @@
       <c r="AK370" s="3"/>
       <c r="AL370" s="3"/>
     </row>
-    <row r="371" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C371" s="3"/>
       <c r="D371" s="3"/>
       <c r="E371" s="3"/>
@@ -16673,7 +16687,7 @@
       <c r="AK371" s="3"/>
       <c r="AL371" s="3"/>
     </row>
-    <row r="372" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C372" s="3"/>
       <c r="D372" s="3"/>
       <c r="E372" s="3"/>
@@ -16711,7 +16725,7 @@
       <c r="AK372" s="3"/>
       <c r="AL372" s="3"/>
     </row>
-    <row r="373" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C373" s="3"/>
       <c r="D373" s="3"/>
       <c r="E373" s="3"/>
@@ -16749,7 +16763,7 @@
       <c r="AK373" s="3"/>
       <c r="AL373" s="3"/>
     </row>
-    <row r="374" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C374" s="3"/>
       <c r="D374" s="3"/>
       <c r="E374" s="3"/>
@@ -16787,7 +16801,7 @@
       <c r="AK374" s="3"/>
       <c r="AL374" s="3"/>
     </row>
-    <row r="375" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C375" s="3"/>
       <c r="D375" s="3"/>
       <c r="E375" s="3"/>
@@ -16825,7 +16839,7 @@
       <c r="AK375" s="3"/>
       <c r="AL375" s="3"/>
     </row>
-    <row r="376" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C376" s="3"/>
       <c r="D376" s="3"/>
       <c r="E376" s="3"/>
@@ -16863,7 +16877,7 @@
       <c r="AK376" s="3"/>
       <c r="AL376" s="3"/>
     </row>
-    <row r="377" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C377" s="3"/>
       <c r="D377" s="3"/>
       <c r="E377" s="3"/>
@@ -16901,7 +16915,7 @@
       <c r="AK377" s="3"/>
       <c r="AL377" s="3"/>
     </row>
-    <row r="378" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C378" s="3"/>
       <c r="D378" s="3"/>
       <c r="E378" s="3"/>
@@ -16939,7 +16953,7 @@
       <c r="AK378" s="3"/>
       <c r="AL378" s="3"/>
     </row>
-    <row r="379" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C379" s="3"/>
       <c r="D379" s="3"/>
       <c r="E379" s="3"/>
@@ -16977,7 +16991,7 @@
       <c r="AK379" s="3"/>
       <c r="AL379" s="3"/>
     </row>
-    <row r="380" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C380" s="3"/>
       <c r="D380" s="3"/>
       <c r="E380" s="3"/>
@@ -17015,7 +17029,7 @@
       <c r="AK380" s="3"/>
       <c r="AL380" s="3"/>
     </row>
-    <row r="381" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C381" s="3"/>
       <c r="D381" s="3"/>
       <c r="E381" s="3"/>
@@ -17053,7 +17067,7 @@
       <c r="AK381" s="3"/>
       <c r="AL381" s="3"/>
     </row>
-    <row r="382" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C382" s="3"/>
       <c r="D382" s="3"/>
       <c r="E382" s="3"/>
@@ -17091,7 +17105,7 @@
       <c r="AK382" s="3"/>
       <c r="AL382" s="3"/>
     </row>
-    <row r="383" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C383" s="3"/>
       <c r="D383" s="3"/>
       <c r="E383" s="3"/>
@@ -17129,7 +17143,7 @@
       <c r="AK383" s="3"/>
       <c r="AL383" s="3"/>
     </row>
-    <row r="384" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C384" s="3"/>
       <c r="D384" s="3"/>
       <c r="E384" s="3"/>
@@ -17167,7 +17181,7 @@
       <c r="AK384" s="3"/>
       <c r="AL384" s="3"/>
     </row>
-    <row r="385" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C385" s="3"/>
       <c r="D385" s="3"/>
       <c r="E385" s="3"/>
@@ -17205,7 +17219,7 @@
       <c r="AK385" s="3"/>
       <c r="AL385" s="3"/>
     </row>
-    <row r="386" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C386" s="3"/>
       <c r="D386" s="3"/>
       <c r="E386" s="3"/>
@@ -17243,7 +17257,7 @@
       <c r="AK386" s="3"/>
       <c r="AL386" s="3"/>
     </row>
-    <row r="387" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C387" s="3"/>
       <c r="D387" s="3"/>
       <c r="E387" s="3"/>
@@ -17281,7 +17295,7 @@
       <c r="AK387" s="3"/>
       <c r="AL387" s="3"/>
     </row>
-    <row r="388" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C388" s="3"/>
       <c r="D388" s="3"/>
       <c r="E388" s="3"/>
@@ -17319,7 +17333,7 @@
       <c r="AK388" s="3"/>
       <c r="AL388" s="3"/>
     </row>
-    <row r="389" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C389" s="3"/>
       <c r="D389" s="3"/>
       <c r="E389" s="3"/>
@@ -17357,7 +17371,7 @@
       <c r="AK389" s="3"/>
       <c r="AL389" s="3"/>
     </row>
-    <row r="390" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C390" s="3"/>
       <c r="D390" s="3"/>
       <c r="E390" s="3"/>
@@ -17395,7 +17409,7 @@
       <c r="AK390" s="3"/>
       <c r="AL390" s="3"/>
     </row>
-    <row r="391" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C391" s="3"/>
       <c r="D391" s="3"/>
       <c r="E391" s="3"/>
@@ -17433,7 +17447,7 @@
       <c r="AK391" s="3"/>
       <c r="AL391" s="3"/>
     </row>
-    <row r="392" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C392" s="3"/>
       <c r="D392" s="3"/>
       <c r="E392" s="3"/>
@@ -17471,7 +17485,7 @@
       <c r="AK392" s="3"/>
       <c r="AL392" s="3"/>
     </row>
-    <row r="393" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C393" s="3"/>
       <c r="D393" s="3"/>
       <c r="E393" s="3"/>
@@ -17509,7 +17523,7 @@
       <c r="AK393" s="3"/>
       <c r="AL393" s="3"/>
     </row>
-    <row r="394" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C394" s="3"/>
       <c r="D394" s="3"/>
       <c r="E394" s="3"/>
@@ -17547,7 +17561,7 @@
       <c r="AK394" s="3"/>
       <c r="AL394" s="3"/>
     </row>
-    <row r="395" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C395" s="3"/>
       <c r="D395" s="3"/>
       <c r="E395" s="3"/>
@@ -17585,7 +17599,7 @@
       <c r="AK395" s="3"/>
       <c r="AL395" s="3"/>
     </row>
-    <row r="396" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C396" s="3"/>
       <c r="D396" s="3"/>
       <c r="E396" s="3"/>
@@ -17623,7 +17637,7 @@
       <c r="AK396" s="3"/>
       <c r="AL396" s="3"/>
     </row>
-    <row r="397" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C397" s="3"/>
       <c r="D397" s="3"/>
       <c r="E397" s="3"/>
@@ -17661,7 +17675,7 @@
       <c r="AK397" s="3"/>
       <c r="AL397" s="3"/>
     </row>
-    <row r="398" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C398" s="3"/>
       <c r="D398" s="3"/>
       <c r="E398" s="3"/>
@@ -17699,7 +17713,7 @@
       <c r="AK398" s="3"/>
       <c r="AL398" s="3"/>
     </row>
-    <row r="399" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C399" s="3"/>
       <c r="D399" s="3"/>
       <c r="E399" s="3"/>
@@ -17737,7 +17751,7 @@
       <c r="AK399" s="3"/>
       <c r="AL399" s="3"/>
     </row>
-    <row r="400" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C400" s="3"/>
       <c r="D400" s="3"/>
       <c r="E400" s="3"/>
@@ -17775,7 +17789,7 @@
       <c r="AK400" s="3"/>
       <c r="AL400" s="3"/>
     </row>
-    <row r="401" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C401" s="3"/>
       <c r="D401" s="3"/>
       <c r="E401" s="3"/>
@@ -17813,7 +17827,7 @@
       <c r="AK401" s="3"/>
       <c r="AL401" s="3"/>
     </row>
-    <row r="402" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C402" s="3"/>
       <c r="D402" s="3"/>
       <c r="E402" s="3"/>
@@ -17851,7 +17865,7 @@
       <c r="AK402" s="3"/>
       <c r="AL402" s="3"/>
     </row>
-    <row r="403" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C403" s="3"/>
       <c r="D403" s="3"/>
       <c r="E403" s="3"/>
@@ -17889,7 +17903,7 @@
       <c r="AK403" s="3"/>
       <c r="AL403" s="3"/>
     </row>
-    <row r="404" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C404" s="3"/>
       <c r="D404" s="3"/>
       <c r="E404" s="3"/>
@@ -17927,7 +17941,7 @@
       <c r="AK404" s="3"/>
       <c r="AL404" s="3"/>
     </row>
-    <row r="405" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C405" s="3"/>
       <c r="D405" s="3"/>
       <c r="E405" s="3"/>
@@ -17965,7 +17979,7 @@
       <c r="AK405" s="3"/>
       <c r="AL405" s="3"/>
     </row>
-    <row r="406" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C406" s="3"/>
       <c r="D406" s="3"/>
       <c r="E406" s="3"/>
@@ -18003,7 +18017,7 @@
       <c r="AK406" s="3"/>
       <c r="AL406" s="3"/>
     </row>
-    <row r="407" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C407" s="3"/>
       <c r="D407" s="3"/>
       <c r="E407" s="3"/>
@@ -18041,7 +18055,7 @@
       <c r="AK407" s="3"/>
       <c r="AL407" s="3"/>
     </row>
-    <row r="408" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C408" s="3"/>
       <c r="D408" s="3"/>
       <c r="E408" s="3"/>
@@ -18079,7 +18093,7 @@
       <c r="AK408" s="3"/>
       <c r="AL408" s="3"/>
     </row>
-    <row r="409" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C409" s="3"/>
       <c r="D409" s="3"/>
       <c r="E409" s="3"/>
@@ -18117,7 +18131,7 @@
       <c r="AK409" s="3"/>
       <c r="AL409" s="3"/>
     </row>
-    <row r="410" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C410" s="3"/>
       <c r="D410" s="3"/>
       <c r="E410" s="3"/>
@@ -18155,7 +18169,7 @@
       <c r="AK410" s="3"/>
       <c r="AL410" s="3"/>
     </row>
-    <row r="411" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C411" s="3"/>
       <c r="D411" s="3"/>
       <c r="E411" s="3"/>
@@ -18193,7 +18207,7 @@
       <c r="AK411" s="3"/>
       <c r="AL411" s="3"/>
     </row>
-    <row r="412" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C412" s="3"/>
       <c r="D412" s="3"/>
       <c r="E412" s="3"/>
@@ -18231,7 +18245,7 @@
       <c r="AK412" s="3"/>
       <c r="AL412" s="3"/>
     </row>
-    <row r="413" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C413" s="3"/>
       <c r="D413" s="3"/>
       <c r="E413" s="3"/>
@@ -18269,7 +18283,7 @@
       <c r="AK413" s="3"/>
       <c r="AL413" s="3"/>
     </row>
-    <row r="414" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C414" s="3"/>
       <c r="D414" s="3"/>
       <c r="E414" s="3"/>
@@ -18307,7 +18321,7 @@
       <c r="AK414" s="3"/>
       <c r="AL414" s="3"/>
     </row>
-    <row r="415" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C415" s="3"/>
       <c r="D415" s="3"/>
       <c r="E415" s="3"/>
@@ -18345,7 +18359,7 @@
       <c r="AK415" s="3"/>
       <c r="AL415" s="3"/>
     </row>
-    <row r="416" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C416" s="3"/>
       <c r="D416" s="3"/>
       <c r="E416" s="3"/>
@@ -18383,7 +18397,7 @@
       <c r="AK416" s="3"/>
       <c r="AL416" s="3"/>
     </row>
-    <row r="417" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C417" s="3"/>
       <c r="D417" s="3"/>
       <c r="E417" s="3"/>
@@ -18421,7 +18435,7 @@
       <c r="AK417" s="3"/>
       <c r="AL417" s="3"/>
     </row>
-    <row r="418" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C418" s="3"/>
       <c r="D418" s="3"/>
       <c r="E418" s="3"/>
@@ -18459,7 +18473,7 @@
       <c r="AK418" s="3"/>
       <c r="AL418" s="3"/>
     </row>
-    <row r="419" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C419" s="3"/>
       <c r="D419" s="3"/>
       <c r="E419" s="3"/>
@@ -18497,7 +18511,7 @@
       <c r="AK419" s="3"/>
       <c r="AL419" s="3"/>
     </row>
-    <row r="420" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C420" s="3"/>
       <c r="D420" s="3"/>
       <c r="E420" s="3"/>
@@ -18535,7 +18549,7 @@
       <c r="AK420" s="3"/>
       <c r="AL420" s="3"/>
     </row>
-    <row r="421" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C421" s="3"/>
       <c r="D421" s="3"/>
       <c r="E421" s="3"/>
@@ -18573,7 +18587,7 @@
       <c r="AK421" s="3"/>
       <c r="AL421" s="3"/>
     </row>
-    <row r="422" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C422" s="3"/>
       <c r="D422" s="3"/>
       <c r="E422" s="3"/>
@@ -18611,7 +18625,7 @@
       <c r="AK422" s="3"/>
       <c r="AL422" s="3"/>
     </row>
-    <row r="423" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C423" s="3"/>
       <c r="D423" s="3"/>
       <c r="E423" s="3"/>
@@ -18649,7 +18663,7 @@
       <c r="AK423" s="3"/>
       <c r="AL423" s="3"/>
     </row>
-    <row r="424" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C424" s="3"/>
       <c r="D424" s="3"/>
       <c r="E424" s="3"/>
@@ -18687,7 +18701,7 @@
       <c r="AK424" s="3"/>
       <c r="AL424" s="3"/>
     </row>
-    <row r="425" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C425" s="3"/>
       <c r="D425" s="3"/>
       <c r="E425" s="3"/>
@@ -18725,7 +18739,7 @@
       <c r="AK425" s="3"/>
       <c r="AL425" s="3"/>
     </row>
-    <row r="426" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C426" s="3"/>
       <c r="D426" s="3"/>
       <c r="E426" s="3"/>
@@ -18763,7 +18777,7 @@
       <c r="AK426" s="3"/>
       <c r="AL426" s="3"/>
     </row>
-    <row r="427" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C427" s="3"/>
       <c r="D427" s="3"/>
       <c r="E427" s="3"/>
@@ -18801,7 +18815,7 @@
       <c r="AK427" s="3"/>
       <c r="AL427" s="3"/>
     </row>
-    <row r="428" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C428" s="3"/>
       <c r="D428" s="3"/>
       <c r="E428" s="3"/>
@@ -18839,7 +18853,7 @@
       <c r="AK428" s="3"/>
       <c r="AL428" s="3"/>
     </row>
-    <row r="429" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C429" s="3"/>
       <c r="D429" s="3"/>
       <c r="E429" s="3"/>
@@ -18877,7 +18891,7 @@
       <c r="AK429" s="3"/>
       <c r="AL429" s="3"/>
     </row>
-    <row r="430" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C430" s="3"/>
       <c r="D430" s="3"/>
       <c r="E430" s="3"/>
@@ -18915,7 +18929,7 @@
       <c r="AK430" s="3"/>
       <c r="AL430" s="3"/>
     </row>
-    <row r="431" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C431" s="3"/>
       <c r="D431" s="3"/>
       <c r="E431" s="3"/>
@@ -18953,7 +18967,7 @@
       <c r="AK431" s="3"/>
       <c r="AL431" s="3"/>
     </row>
-    <row r="432" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C432" s="3"/>
       <c r="D432" s="3"/>
       <c r="E432" s="3"/>
@@ -18991,7 +19005,7 @@
       <c r="AK432" s="3"/>
       <c r="AL432" s="3"/>
     </row>
-    <row r="433" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C433" s="3"/>
       <c r="D433" s="3"/>
       <c r="E433" s="3"/>
@@ -19029,7 +19043,7 @@
       <c r="AK433" s="3"/>
       <c r="AL433" s="3"/>
     </row>
-    <row r="434" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C434" s="3"/>
       <c r="D434" s="3"/>
       <c r="E434" s="3"/>
@@ -19067,7 +19081,7 @@
       <c r="AK434" s="3"/>
       <c r="AL434" s="3"/>
     </row>
-    <row r="435" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C435" s="3"/>
       <c r="D435" s="3"/>
       <c r="E435" s="3"/>
@@ -19105,7 +19119,7 @@
       <c r="AK435" s="3"/>
       <c r="AL435" s="3"/>
     </row>
-    <row r="436" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C436" s="3"/>
       <c r="D436" s="3"/>
       <c r="E436" s="3"/>
@@ -19143,7 +19157,7 @@
       <c r="AK436" s="3"/>
       <c r="AL436" s="3"/>
     </row>
-    <row r="437" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C437" s="3"/>
       <c r="D437" s="3"/>
       <c r="E437" s="3"/>
@@ -19181,7 +19195,7 @@
       <c r="AK437" s="3"/>
       <c r="AL437" s="3"/>
     </row>
-    <row r="438" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C438" s="3"/>
       <c r="D438" s="3"/>
       <c r="E438" s="3"/>
@@ -19219,7 +19233,7 @@
       <c r="AK438" s="3"/>
       <c r="AL438" s="3"/>
     </row>
-    <row r="439" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C439" s="3"/>
       <c r="D439" s="3"/>
       <c r="E439" s="3"/>
@@ -19257,7 +19271,7 @@
       <c r="AK439" s="3"/>
       <c r="AL439" s="3"/>
     </row>
-    <row r="440" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C440" s="3"/>
       <c r="D440" s="3"/>
       <c r="E440" s="3"/>
@@ -19295,7 +19309,7 @@
       <c r="AK440" s="3"/>
       <c r="AL440" s="3"/>
     </row>
-    <row r="441" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C441" s="3"/>
       <c r="D441" s="3"/>
       <c r="E441" s="3"/>
@@ -19333,7 +19347,7 @@
       <c r="AK441" s="3"/>
       <c r="AL441" s="3"/>
     </row>
-    <row r="442" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C442" s="3"/>
       <c r="D442" s="3"/>
       <c r="E442" s="3"/>
@@ -19371,7 +19385,7 @@
       <c r="AK442" s="3"/>
       <c r="AL442" s="3"/>
     </row>
-    <row r="443" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C443" s="3"/>
       <c r="D443" s="3"/>
       <c r="E443" s="3"/>
@@ -19409,7 +19423,7 @@
       <c r="AK443" s="3"/>
       <c r="AL443" s="3"/>
     </row>
-    <row r="444" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C444" s="3"/>
       <c r="D444" s="3"/>
       <c r="E444" s="3"/>
@@ -19447,7 +19461,7 @@
       <c r="AK444" s="3"/>
       <c r="AL444" s="3"/>
     </row>
-    <row r="445" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C445" s="3"/>
       <c r="D445" s="3"/>
       <c r="E445" s="3"/>
@@ -19485,7 +19499,7 @@
       <c r="AK445" s="3"/>
       <c r="AL445" s="3"/>
     </row>
-    <row r="446" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C446" s="3"/>
       <c r="D446" s="3"/>
       <c r="E446" s="3"/>
@@ -19523,7 +19537,7 @@
       <c r="AK446" s="3"/>
       <c r="AL446" s="3"/>
     </row>
-    <row r="447" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C447" s="3"/>
       <c r="D447" s="3"/>
       <c r="E447" s="3"/>
@@ -19561,7 +19575,7 @@
       <c r="AK447" s="3"/>
       <c r="AL447" s="3"/>
     </row>
-    <row r="448" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C448" s="3"/>
       <c r="D448" s="3"/>
       <c r="E448" s="3"/>
@@ -19599,7 +19613,7 @@
       <c r="AK448" s="3"/>
       <c r="AL448" s="3"/>
     </row>
-    <row r="449" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C449" s="3"/>
       <c r="D449" s="3"/>
       <c r="E449" s="3"/>
@@ -19637,7 +19651,7 @@
       <c r="AK449" s="3"/>
       <c r="AL449" s="3"/>
     </row>
-    <row r="450" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C450" s="3"/>
       <c r="D450" s="3"/>
       <c r="E450" s="3"/>
@@ -19675,7 +19689,7 @@
       <c r="AK450" s="3"/>
       <c r="AL450" s="3"/>
     </row>
-    <row r="451" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="451" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C451" s="3"/>
       <c r="D451" s="3"/>
       <c r="E451" s="3"/>
@@ -19713,7 +19727,7 @@
       <c r="AK451" s="3"/>
       <c r="AL451" s="3"/>
     </row>
-    <row r="452" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C452" s="3"/>
       <c r="D452" s="3"/>
       <c r="E452" s="3"/>
@@ -19751,7 +19765,7 @@
       <c r="AK452" s="3"/>
       <c r="AL452" s="3"/>
     </row>
-    <row r="453" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C453" s="3"/>
       <c r="D453" s="3"/>
       <c r="E453" s="3"/>
@@ -19789,7 +19803,7 @@
       <c r="AK453" s="3"/>
       <c r="AL453" s="3"/>
     </row>
-    <row r="454" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C454" s="3"/>
       <c r="D454" s="3"/>
       <c r="E454" s="3"/>
@@ -19827,7 +19841,7 @@
       <c r="AK454" s="3"/>
       <c r="AL454" s="3"/>
     </row>
-    <row r="455" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C455" s="3"/>
       <c r="D455" s="3"/>
       <c r="E455" s="3"/>
@@ -19865,7 +19879,7 @@
       <c r="AK455" s="3"/>
       <c r="AL455" s="3"/>
     </row>
-    <row r="456" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C456" s="3"/>
       <c r="D456" s="3"/>
       <c r="E456" s="3"/>
@@ -19903,7 +19917,7 @@
       <c r="AK456" s="3"/>
       <c r="AL456" s="3"/>
     </row>
-    <row r="457" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C457" s="3"/>
       <c r="D457" s="3"/>
       <c r="E457" s="3"/>
@@ -19941,7 +19955,7 @@
       <c r="AK457" s="3"/>
       <c r="AL457" s="3"/>
     </row>
-    <row r="458" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C458" s="3"/>
       <c r="D458" s="3"/>
       <c r="E458" s="3"/>
@@ -19979,7 +19993,7 @@
       <c r="AK458" s="3"/>
       <c r="AL458" s="3"/>
     </row>
-    <row r="459" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="459" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C459" s="3"/>
       <c r="D459" s="3"/>
       <c r="E459" s="3"/>
@@ -20017,7 +20031,7 @@
       <c r="AK459" s="3"/>
       <c r="AL459" s="3"/>
     </row>
-    <row r="460" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="460" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C460" s="3"/>
       <c r="D460" s="3"/>
       <c r="E460" s="3"/>
@@ -20055,7 +20069,7 @@
       <c r="AK460" s="3"/>
       <c r="AL460" s="3"/>
     </row>
-    <row r="461" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="461" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C461" s="3"/>
       <c r="D461" s="3"/>
       <c r="E461" s="3"/>
@@ -20093,7 +20107,7 @@
       <c r="AK461" s="3"/>
       <c r="AL461" s="3"/>
     </row>
-    <row r="462" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="462" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C462" s="3"/>
       <c r="D462" s="3"/>
       <c r="E462" s="3"/>
@@ -20131,7 +20145,7 @@
       <c r="AK462" s="3"/>
       <c r="AL462" s="3"/>
     </row>
-    <row r="463" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="463" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C463" s="3"/>
       <c r="D463" s="3"/>
       <c r="E463" s="3"/>
@@ -20169,7 +20183,7 @@
       <c r="AK463" s="3"/>
       <c r="AL463" s="3"/>
     </row>
-    <row r="464" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="464" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C464" s="3"/>
       <c r="D464" s="3"/>
       <c r="E464" s="3"/>
@@ -20207,7 +20221,7 @@
       <c r="AK464" s="3"/>
       <c r="AL464" s="3"/>
     </row>
-    <row r="465" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="465" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C465" s="3"/>
       <c r="D465" s="3"/>
       <c r="E465" s="3"/>
@@ -20245,7 +20259,7 @@
       <c r="AK465" s="3"/>
       <c r="AL465" s="3"/>
     </row>
-    <row r="466" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="466" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C466" s="3"/>
       <c r="D466" s="3"/>
       <c r="E466" s="3"/>
@@ -20283,7 +20297,7 @@
       <c r="AK466" s="3"/>
       <c r="AL466" s="3"/>
     </row>
-    <row r="467" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="467" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C467" s="3"/>
       <c r="D467" s="3"/>
       <c r="E467" s="3"/>
@@ -20321,7 +20335,7 @@
       <c r="AK467" s="3"/>
       <c r="AL467" s="3"/>
     </row>
-    <row r="468" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="468" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C468" s="3"/>
       <c r="D468" s="3"/>
       <c r="E468" s="3"/>
@@ -20359,7 +20373,7 @@
       <c r="AK468" s="3"/>
       <c r="AL468" s="3"/>
     </row>
-    <row r="469" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="469" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C469" s="3"/>
       <c r="D469" s="3"/>
       <c r="E469" s="3"/>
@@ -20397,7 +20411,7 @@
       <c r="AK469" s="3"/>
       <c r="AL469" s="3"/>
     </row>
-    <row r="470" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="470" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C470" s="3"/>
       <c r="D470" s="3"/>
       <c r="E470" s="3"/>
@@ -20435,7 +20449,7 @@
       <c r="AK470" s="3"/>
       <c r="AL470" s="3"/>
     </row>
-    <row r="471" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="471" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C471" s="3"/>
       <c r="D471" s="3"/>
       <c r="E471" s="3"/>
@@ -20473,7 +20487,7 @@
       <c r="AK471" s="3"/>
       <c r="AL471" s="3"/>
     </row>
-    <row r="472" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="472" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C472" s="3"/>
       <c r="D472" s="3"/>
       <c r="E472" s="3"/>
@@ -20511,7 +20525,7 @@
       <c r="AK472" s="3"/>
       <c r="AL472" s="3"/>
     </row>
-    <row r="473" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="473" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C473" s="3"/>
       <c r="D473" s="3"/>
       <c r="E473" s="3"/>
@@ -20549,7 +20563,7 @@
       <c r="AK473" s="3"/>
       <c r="AL473" s="3"/>
     </row>
-    <row r="474" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="474" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C474" s="3"/>
       <c r="D474" s="3"/>
       <c r="E474" s="3"/>
@@ -20587,7 +20601,7 @@
       <c r="AK474" s="3"/>
       <c r="AL474" s="3"/>
     </row>
-    <row r="475" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="475" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C475" s="3"/>
       <c r="D475" s="3"/>
       <c r="E475" s="3"/>
@@ -20625,7 +20639,7 @@
       <c r="AK475" s="3"/>
       <c r="AL475" s="3"/>
     </row>
-    <row r="476" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="476" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C476" s="3"/>
       <c r="D476" s="3"/>
       <c r="E476" s="3"/>
@@ -20663,7 +20677,7 @@
       <c r="AK476" s="3"/>
       <c r="AL476" s="3"/>
     </row>
-    <row r="477" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="477" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C477" s="3"/>
       <c r="D477" s="3"/>
       <c r="E477" s="3"/>
@@ -20701,7 +20715,7 @@
       <c r="AK477" s="3"/>
       <c r="AL477" s="3"/>
     </row>
-    <row r="478" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="478" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C478" s="3"/>
       <c r="D478" s="3"/>
       <c r="E478" s="3"/>
@@ -20739,7 +20753,7 @@
       <c r="AK478" s="3"/>
       <c r="AL478" s="3"/>
     </row>
-    <row r="479" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="479" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C479" s="3"/>
       <c r="D479" s="3"/>
       <c r="E479" s="3"/>
@@ -20777,7 +20791,7 @@
       <c r="AK479" s="3"/>
       <c r="AL479" s="3"/>
     </row>
-    <row r="480" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="480" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C480" s="3"/>
       <c r="D480" s="3"/>
       <c r="E480" s="3"/>
@@ -20815,7 +20829,7 @@
       <c r="AK480" s="3"/>
       <c r="AL480" s="3"/>
     </row>
-    <row r="481" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="481" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C481" s="3"/>
       <c r="D481" s="3"/>
       <c r="E481" s="3"/>
@@ -20853,7 +20867,7 @@
       <c r="AK481" s="3"/>
       <c r="AL481" s="3"/>
     </row>
-    <row r="482" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="482" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C482" s="3"/>
       <c r="D482" s="3"/>
       <c r="E482" s="3"/>
@@ -20891,7 +20905,7 @@
       <c r="AK482" s="3"/>
       <c r="AL482" s="3"/>
     </row>
-    <row r="483" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="483" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C483" s="3"/>
       <c r="D483" s="3"/>
       <c r="E483" s="3"/>
@@ -20929,7 +20943,7 @@
       <c r="AK483" s="3"/>
       <c r="AL483" s="3"/>
     </row>
-    <row r="484" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="484" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C484" s="3"/>
       <c r="D484" s="3"/>
       <c r="E484" s="3"/>
@@ -20967,7 +20981,7 @@
       <c r="AK484" s="3"/>
       <c r="AL484" s="3"/>
     </row>
-    <row r="485" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="485" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C485" s="3"/>
       <c r="D485" s="3"/>
       <c r="E485" s="3"/>
@@ -21005,7 +21019,7 @@
       <c r="AK485" s="3"/>
       <c r="AL485" s="3"/>
     </row>
-    <row r="486" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="486" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C486" s="3"/>
       <c r="D486" s="3"/>
       <c r="E486" s="3"/>
@@ -21043,7 +21057,7 @@
       <c r="AK486" s="3"/>
       <c r="AL486" s="3"/>
     </row>
-    <row r="487" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="487" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C487" s="3"/>
       <c r="D487" s="3"/>
       <c r="E487" s="3"/>
@@ -21081,7 +21095,7 @@
       <c r="AK487" s="3"/>
       <c r="AL487" s="3"/>
     </row>
-    <row r="488" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="488" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C488" s="3"/>
       <c r="D488" s="3"/>
       <c r="E488" s="3"/>
@@ -21119,7 +21133,7 @@
       <c r="AK488" s="3"/>
       <c r="AL488" s="3"/>
     </row>
-    <row r="489" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="489" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C489" s="3"/>
       <c r="D489" s="3"/>
       <c r="E489" s="3"/>
@@ -21157,7 +21171,7 @@
       <c r="AK489" s="3"/>
       <c r="AL489" s="3"/>
     </row>
-    <row r="490" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="490" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C490" s="3"/>
       <c r="D490" s="3"/>
       <c r="E490" s="3"/>
@@ -21195,7 +21209,7 @@
       <c r="AK490" s="3"/>
       <c r="AL490" s="3"/>
     </row>
-    <row r="491" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="491" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C491" s="3"/>
       <c r="D491" s="3"/>
       <c r="E491" s="3"/>
@@ -21233,7 +21247,7 @@
       <c r="AK491" s="3"/>
       <c r="AL491" s="3"/>
     </row>
-    <row r="492" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="492" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C492" s="3"/>
       <c r="D492" s="3"/>
       <c r="E492" s="3"/>
@@ -21271,7 +21285,7 @@
       <c r="AK492" s="3"/>
       <c r="AL492" s="3"/>
     </row>
-    <row r="493" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="493" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C493" s="3"/>
       <c r="D493" s="3"/>
       <c r="E493" s="3"/>
@@ -21309,7 +21323,7 @@
       <c r="AK493" s="3"/>
       <c r="AL493" s="3"/>
     </row>
-    <row r="494" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="494" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C494" s="3"/>
       <c r="D494" s="3"/>
       <c r="E494" s="3"/>
@@ -21347,7 +21361,7 @@
       <c r="AK494" s="3"/>
       <c r="AL494" s="3"/>
     </row>
-    <row r="495" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="495" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C495" s="3"/>
       <c r="D495" s="3"/>
       <c r="E495" s="3"/>
@@ -21385,7 +21399,7 @@
       <c r="AK495" s="3"/>
       <c r="AL495" s="3"/>
     </row>
-    <row r="496" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="496" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C496" s="3"/>
       <c r="D496" s="3"/>
       <c r="E496" s="3"/>
@@ -21423,7 +21437,7 @@
       <c r="AK496" s="3"/>
       <c r="AL496" s="3"/>
     </row>
-    <row r="497" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="497" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C497" s="3"/>
       <c r="D497" s="3"/>
       <c r="E497" s="3"/>
@@ -21461,7 +21475,7 @@
       <c r="AK497" s="3"/>
       <c r="AL497" s="3"/>
     </row>
-    <row r="498" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="498" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C498" s="3"/>
       <c r="D498" s="3"/>
       <c r="E498" s="3"/>
@@ -21499,7 +21513,7 @@
       <c r="AK498" s="3"/>
       <c r="AL498" s="3"/>
     </row>
-    <row r="499" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="499" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C499" s="3"/>
       <c r="D499" s="3"/>
       <c r="E499" s="3"/>
@@ -21537,7 +21551,7 @@
       <c r="AK499" s="3"/>
       <c r="AL499" s="3"/>
     </row>
-    <row r="500" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="500" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C500" s="3"/>
       <c r="D500" s="3"/>
       <c r="E500" s="3"/>
@@ -21575,7 +21589,7 @@
       <c r="AK500" s="3"/>
       <c r="AL500" s="3"/>
     </row>
-    <row r="501" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="501" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C501" s="3"/>
       <c r="D501" s="3"/>
       <c r="E501" s="3"/>
@@ -21613,7 +21627,7 @@
       <c r="AK501" s="3"/>
       <c r="AL501" s="3"/>
     </row>
-    <row r="502" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="502" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C502" s="3"/>
       <c r="D502" s="3"/>
       <c r="E502" s="3"/>
@@ -21651,7 +21665,7 @@
       <c r="AK502" s="3"/>
       <c r="AL502" s="3"/>
     </row>
-    <row r="503" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="503" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C503" s="3"/>
       <c r="D503" s="3"/>
       <c r="E503" s="3"/>
@@ -21689,7 +21703,7 @@
       <c r="AK503" s="3"/>
       <c r="AL503" s="3"/>
     </row>
-    <row r="504" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="504" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C504" s="3"/>
       <c r="D504" s="3"/>
       <c r="E504" s="3"/>
@@ -21727,7 +21741,7 @@
       <c r="AK504" s="3"/>
       <c r="AL504" s="3"/>
     </row>
-    <row r="505" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="505" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C505" s="3"/>
       <c r="D505" s="3"/>
       <c r="E505" s="3"/>
@@ -21765,7 +21779,7 @@
       <c r="AK505" s="3"/>
       <c r="AL505" s="3"/>
     </row>
-    <row r="506" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="506" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C506" s="3"/>
       <c r="D506" s="3"/>
       <c r="E506" s="3"/>
@@ -21803,7 +21817,7 @@
       <c r="AK506" s="3"/>
       <c r="AL506" s="3"/>
     </row>
-    <row r="507" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="507" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C507" s="3"/>
       <c r="D507" s="3"/>
       <c r="E507" s="3"/>
@@ -21841,7 +21855,7 @@
       <c r="AK507" s="3"/>
       <c r="AL507" s="3"/>
     </row>
-    <row r="508" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="508" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C508" s="3"/>
       <c r="D508" s="3"/>
       <c r="E508" s="3"/>
@@ -21879,7 +21893,7 @@
       <c r="AK508" s="3"/>
       <c r="AL508" s="3"/>
     </row>
-    <row r="509" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="509" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C509" s="3"/>
       <c r="D509" s="3"/>
       <c r="E509" s="3"/>
@@ -21917,7 +21931,7 @@
       <c r="AK509" s="3"/>
       <c r="AL509" s="3"/>
     </row>
-    <row r="510" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="510" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C510" s="3"/>
       <c r="D510" s="3"/>
       <c r="E510" s="3"/>
@@ -21955,7 +21969,7 @@
       <c r="AK510" s="3"/>
       <c r="AL510" s="3"/>
     </row>
-    <row r="511" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="511" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C511" s="3"/>
       <c r="D511" s="3"/>
       <c r="E511" s="3"/>
@@ -21993,7 +22007,7 @@
       <c r="AK511" s="3"/>
       <c r="AL511" s="3"/>
     </row>
-    <row r="512" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="512" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C512" s="3"/>
       <c r="D512" s="3"/>
       <c r="E512" s="3"/>
@@ -22031,7 +22045,7 @@
       <c r="AK512" s="3"/>
       <c r="AL512" s="3"/>
     </row>
-    <row r="513" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="513" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C513" s="3"/>
       <c r="D513" s="3"/>
       <c r="E513" s="3"/>
@@ -22069,7 +22083,7 @@
       <c r="AK513" s="3"/>
       <c r="AL513" s="3"/>
     </row>
-    <row r="514" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="514" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C514" s="3"/>
       <c r="D514" s="3"/>
       <c r="E514" s="3"/>
@@ -22107,7 +22121,7 @@
       <c r="AK514" s="3"/>
       <c r="AL514" s="3"/>
     </row>
-    <row r="515" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="515" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C515" s="3"/>
       <c r="D515" s="3"/>
       <c r="E515" s="3"/>
@@ -22145,7 +22159,7 @@
       <c r="AK515" s="3"/>
       <c r="AL515" s="3"/>
     </row>
-    <row r="516" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="516" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C516" s="3"/>
       <c r="D516" s="3"/>
       <c r="E516" s="3"/>
@@ -22183,7 +22197,7 @@
       <c r="AK516" s="3"/>
       <c r="AL516" s="3"/>
     </row>
-    <row r="517" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="517" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C517" s="3"/>
       <c r="D517" s="3"/>
       <c r="E517" s="3"/>
@@ -22221,7 +22235,7 @@
       <c r="AK517" s="3"/>
       <c r="AL517" s="3"/>
     </row>
-    <row r="518" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="518" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C518" s="3"/>
       <c r="D518" s="3"/>
       <c r="E518" s="3"/>
@@ -22259,7 +22273,7 @@
       <c r="AK518" s="3"/>
       <c r="AL518" s="3"/>
     </row>
-    <row r="519" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="519" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C519" s="3"/>
       <c r="D519" s="3"/>
       <c r="E519" s="3"/>
@@ -22297,7 +22311,7 @@
       <c r="AK519" s="3"/>
       <c r="AL519" s="3"/>
     </row>
-    <row r="520" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="520" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C520" s="3"/>
       <c r="D520" s="3"/>
       <c r="E520" s="3"/>
@@ -22335,7 +22349,7 @@
       <c r="AK520" s="3"/>
       <c r="AL520" s="3"/>
     </row>
-    <row r="521" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="521" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C521" s="3"/>
       <c r="D521" s="3"/>
       <c r="E521" s="3"/>
@@ -22373,7 +22387,7 @@
       <c r="AK521" s="3"/>
       <c r="AL521" s="3"/>
     </row>
-    <row r="522" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="522" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C522" s="3"/>
       <c r="D522" s="3"/>
       <c r="E522" s="3"/>
@@ -22411,7 +22425,7 @@
       <c r="AK522" s="3"/>
       <c r="AL522" s="3"/>
     </row>
-    <row r="523" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="523" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C523" s="3"/>
       <c r="D523" s="3"/>
       <c r="E523" s="3"/>
@@ -22449,7 +22463,7 @@
       <c r="AK523" s="3"/>
       <c r="AL523" s="3"/>
     </row>
-    <row r="524" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="524" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C524" s="3"/>
       <c r="D524" s="3"/>
       <c r="E524" s="3"/>
@@ -22487,7 +22501,7 @@
       <c r="AK524" s="3"/>
       <c r="AL524" s="3"/>
     </row>
-    <row r="525" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="525" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C525" s="3"/>
       <c r="D525" s="3"/>
       <c r="E525" s="3"/>
@@ -22525,7 +22539,7 @@
       <c r="AK525" s="3"/>
       <c r="AL525" s="3"/>
     </row>
-    <row r="526" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="526" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C526" s="3"/>
       <c r="D526" s="3"/>
       <c r="E526" s="3"/>
@@ -22563,7 +22577,7 @@
       <c r="AK526" s="3"/>
       <c r="AL526" s="3"/>
     </row>
-    <row r="527" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="527" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C527" s="3"/>
       <c r="D527" s="3"/>
       <c r="E527" s="3"/>
@@ -22601,7 +22615,7 @@
       <c r="AK527" s="3"/>
       <c r="AL527" s="3"/>
     </row>
-    <row r="528" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="528" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C528" s="3"/>
       <c r="D528" s="3"/>
       <c r="E528" s="3"/>
@@ -22639,7 +22653,7 @@
       <c r="AK528" s="3"/>
       <c r="AL528" s="3"/>
     </row>
-    <row r="529" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="529" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C529" s="3"/>
       <c r="D529" s="3"/>
       <c r="E529" s="3"/>
@@ -22677,7 +22691,7 @@
       <c r="AK529" s="3"/>
       <c r="AL529" s="3"/>
     </row>
-    <row r="530" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="530" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C530" s="3"/>
       <c r="D530" s="3"/>
       <c r="E530" s="3"/>
@@ -22715,7 +22729,7 @@
       <c r="AK530" s="3"/>
       <c r="AL530" s="3"/>
     </row>
-    <row r="531" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="531" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C531" s="3"/>
       <c r="D531" s="3"/>
       <c r="E531" s="3"/>
@@ -22753,7 +22767,7 @@
       <c r="AK531" s="3"/>
       <c r="AL531" s="3"/>
     </row>
-    <row r="532" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="532" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C532" s="3"/>
       <c r="D532" s="3"/>
       <c r="E532" s="3"/>
@@ -22791,7 +22805,7 @@
       <c r="AK532" s="3"/>
       <c r="AL532" s="3"/>
     </row>
-    <row r="533" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="533" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C533" s="3"/>
       <c r="D533" s="3"/>
       <c r="E533" s="3"/>
@@ -22829,7 +22843,7 @@
       <c r="AK533" s="3"/>
       <c r="AL533" s="3"/>
     </row>
-    <row r="534" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="534" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C534" s="3"/>
       <c r="D534" s="3"/>
       <c r="E534" s="3"/>
@@ -22867,7 +22881,7 @@
       <c r="AK534" s="3"/>
       <c r="AL534" s="3"/>
     </row>
-    <row r="535" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="535" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C535" s="3"/>
       <c r="D535" s="3"/>
       <c r="E535" s="3"/>
@@ -22905,7 +22919,7 @@
       <c r="AK535" s="3"/>
       <c r="AL535" s="3"/>
     </row>
-    <row r="536" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="536" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C536" s="3"/>
       <c r="D536" s="3"/>
       <c r="E536" s="3"/>
@@ -22943,7 +22957,7 @@
       <c r="AK536" s="3"/>
       <c r="AL536" s="3"/>
     </row>
-    <row r="537" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="537" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C537" s="3"/>
       <c r="D537" s="3"/>
       <c r="E537" s="3"/>
@@ -22981,7 +22995,7 @@
       <c r="AK537" s="3"/>
       <c r="AL537" s="3"/>
     </row>
-    <row r="538" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="538" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C538" s="3"/>
       <c r="D538" s="3"/>
       <c r="E538" s="3"/>
@@ -23019,7 +23033,7 @@
       <c r="AK538" s="3"/>
       <c r="AL538" s="3"/>
     </row>
-    <row r="539" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="539" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C539" s="3"/>
       <c r="D539" s="3"/>
       <c r="E539" s="3"/>
@@ -23057,7 +23071,7 @@
       <c r="AK539" s="3"/>
       <c r="AL539" s="3"/>
     </row>
-    <row r="540" spans="3:38" x14ac:dyDescent="0.25">
+    <row r="540" spans="3:38" x14ac:dyDescent="0.2">
       <c r="C540" s="3"/>
       <c r="D540" s="3"/>
       <c r="E540" s="3"/>

--- a/WBD.xlsx
+++ b/WBD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C858EC-6262-4AB2-9E1C-41437C00137F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF712766-FEE2-4950-81F9-D0EEBAC261A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{5C7F38FC-DD10-463B-8DE9-023509F3C474}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{5C7F38FC-DD10-463B-8DE9-023509F3C474}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="125">
   <si>
     <t>WBD</t>
   </si>
@@ -444,6 +444,9 @@
   <si>
     <t>DTC Revenue (Streaming)</t>
   </si>
+  <si>
+    <t>05-12-2025 acquired by Netflix for 82.7 Billion USD</t>
+  </si>
 </sst>
 </file>
 
@@ -453,13 +456,19 @@
     <numFmt numFmtId="164" formatCode="#,##0.00;\(#,##0.00\)"/>
     <numFmt numFmtId="165" formatCode="#,##0;\(#,##0\)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -536,29 +545,30 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -895,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787A051E-5ADC-4694-AF11-764B14534224}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -921,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="2">
-        <v>11.87</v>
+        <v>25.88</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -944,7 +954,7 @@
       </c>
       <c r="H4" s="3">
         <f>+H2*H3</f>
-        <v>29387.416987339999</v>
+        <v>64072.986658159993</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -982,7 +992,7 @@
       </c>
       <c r="H7" s="3">
         <f>+H4-H5+H6</f>
-        <v>59131.416987339995</v>
+        <v>93816.986658159993</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1130,6 +1140,11 @@
     <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B38" s="15" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
